--- a/Synthèse-Experiences/Hole_Size_Dosev2.xlsx
+++ b/Synthèse-Experiences/Hole_Size_Dosev2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="68">
   <si>
     <t>backside</t>
   </si>
@@ -126,23 +126,6 @@
   </si>
   <si>
     <t>Column</t>
-  </si>
-  <si>
-    <r>
-      <t>Current</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pA</t>
-    </r>
   </si>
   <si>
     <t>ApproxGauss-Auto</t>
@@ -272,6 +255,29 @@
   <si>
     <t>Hole ratio (front/back) is between 1,1 and 0,5 . It seems to tend to 1 for high number of loop</t>
   </si>
+  <si>
+    <t>For thinner membranes (30nm) hole ratio is close to 1 (and sometime higher ?)</t>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pA</t>
+    </r>
+  </si>
+  <si>
+    <t>Thickness nm</t>
+  </si>
 </sst>
 </file>
 
@@ -370,7 +376,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,8 +413,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -555,11 +567,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -596,7 +621,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -646,6 +670,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -655,12 +680,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -2072,11 +2174,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="212452864"/>
-        <c:axId val="212454400"/>
+        <c:axId val="208127488"/>
+        <c:axId val="208129024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="212452864"/>
+        <c:axId val="208127488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2086,12 +2188,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212454400"/>
+        <c:crossAx val="208129024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="212454400"/>
+        <c:axId val="208129024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2102,7 +2204,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212452864"/>
+        <c:crossAx val="208127488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2310,11 +2412,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213214720"/>
-        <c:axId val="213216256"/>
+        <c:axId val="209417728"/>
+        <c:axId val="209419264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213214720"/>
+        <c:axId val="209417728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2"/>
@@ -2325,12 +2427,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213216256"/>
+        <c:crossAx val="209419264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213216256"/>
+        <c:axId val="209419264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2341,7 +2443,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213214720"/>
+        <c:crossAx val="209417728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2414,7 +2516,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil2!$B$61:$B$64</c:f>
+              <c:f>Feuil2!$B$71:$B$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2432,7 +2534,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil2!$F$61:$F$64</c:f>
+              <c:f>Feuil2!$F$71:$F$74</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2486,7 +2588,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil2!$B$61:$B$64</c:f>
+              <c:f>Feuil2!$B$71:$B$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2504,7 +2606,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil2!$F$65:$F$67</c:f>
+              <c:f>Feuil2!$F$75:$F$77</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2558,7 +2660,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil2!$B$61:$B$64</c:f>
+              <c:f>Feuil2!$B$71:$B$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2576,7 +2678,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil2!$F$69:$F$71</c:f>
+              <c:f>Feuil2!$F$79:$F$81</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2599,11 +2701,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213126144"/>
-        <c:axId val="213132416"/>
+        <c:axId val="209325056"/>
+        <c:axId val="209331328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213126144"/>
+        <c:axId val="209325056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2632,12 +2734,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213132416"/>
+        <c:crossAx val="209331328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213132416"/>
+        <c:axId val="209331328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2674,7 +2776,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213126144"/>
+        <c:crossAx val="209325056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2913,10 +3015,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil2!$I$54:$I$56</c:f>
+              <c:f>Feuil2!$I$54:$I$57</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.36</c:v>
                 </c:pt>
@@ -2924,6 +3026,9 @@
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.84</c:v>
                 </c:pt>
               </c:numCache>
@@ -2931,17 +3036,17 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil2!$K$54:$K$56</c:f>
+              <c:f>Feuil2!$K$54:$K$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>39.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>63.26</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>65.400000000000006</c:v>
                 </c:pt>
               </c:numCache>
@@ -2957,11 +3062,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="20601856"/>
-        <c:axId val="20600320"/>
+        <c:axId val="209719296"/>
+        <c:axId val="209721216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="20601856"/>
+        <c:axId val="209719296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2990,12 +3095,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="20600320"/>
+        <c:crossAx val="209721216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="20600320"/>
+        <c:axId val="209721216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -3027,7 +3132,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="20601856"/>
+        <c:crossAx val="209719296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3113,15 +3218,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>1121</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>81836</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>643377</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>195943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>502951</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>132836</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>48090</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3143,16 +3248,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>59999</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>81770</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>97779</xdr:rowOff>
+      <xdr:rowOff>130436</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3173,16 +3278,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>699247</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>731933</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>98611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>337676</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>577190</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>106295</xdr:rowOff>
+      <xdr:rowOff>84523</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3206,8 +3311,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="13052612" y="295835"/>
-          <a:ext cx="5133794" cy="6203576"/>
+          <a:off x="14622104" y="294554"/>
+          <a:ext cx="5135715" cy="6277855"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3230,13 +3335,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>726141</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>80682</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>681318</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>116541</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3260,13 +3365,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>735103</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>80681</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>53333</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3315,13 +3420,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>303521</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>180576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>93490</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>24334</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3345,14 +3450,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>261257</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>130629</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>6151</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>174171</xdr:rowOff>
+      <xdr:colOff>147665</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>174172</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3400,8 +3505,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A2:O56" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
-  <autoFilter ref="A2:O56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A2:P67" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36" totalsRowBorderDxfId="35">
+  <autoFilter ref="A2:P67">
     <filterColumn colId="3">
       <filters>
         <filter val="ApproxGauss-Auto"/>
@@ -3412,36 +3517,37 @@
   <sortState ref="A44:O51">
     <sortCondition ref="I2:I56"/>
   </sortState>
-  <tableColumns count="15">
-    <tableColumn id="1" name="Exp" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="19" name="Thickness" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="3" name="Image Type" dataDxfId="28" totalsRowDxfId="27"/>
-    <tableColumn id="5" name="Measure with*" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="6" name="dose on design" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="15" name="Design Dose factor" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="17" name="Dot Dose pC" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="18" name="Loop" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="16" name="Final dose" dataDxfId="16" totalsRowDxfId="15">
+  <tableColumns count="16">
+    <tableColumn id="1" name="Exp" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="19" name="Thickness" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="3" name="Image Type" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="5" name="Measure with*" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="6" name="dose on design" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="15" name="Design Dose factor" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="17" name="Dot Dose pC" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="18" name="Loop" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="16" name="Final dose" dataDxfId="18" totalsRowDxfId="17">
       <calculatedColumnFormula>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Frontside - direct" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="8" name="Backside - transmission" dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="11" name="Ecart relatif" dataDxfId="10" totalsRowDxfId="9">
+    <tableColumn id="7" name="Frontside - direct" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="8" name="Backside - transmission" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="11" name="Ecart relatif" dataDxfId="12" totalsRowDxfId="11">
       <calculatedColumnFormula>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Hole Ratio" dataDxfId="8" totalsRowDxfId="7">
+    <tableColumn id="12" name="Hole Ratio" dataDxfId="10" totalsRowDxfId="9">
       <calculatedColumnFormula>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Column" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="14" name="Current pA" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="13" name="Column" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="14" name="i pA" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="2" name="Thickness nm" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A60:G72" totalsRowShown="0">
-  <autoFilter ref="A60:G72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A70:G82" totalsRowShown="0">
+  <autoFilter ref="A70:G82">
     <filterColumn colId="0">
       <filters>
         <filter val="77"/>
@@ -3456,14 +3562,14 @@
   <tableColumns count="7">
     <tableColumn id="1" name="Exp "/>
     <tableColumn id="16" name="Final Dose"/>
-    <tableColumn id="2" name="Back?" dataDxfId="2">
+    <tableColumn id="2" name="Back?" dataDxfId="4">
       <calculatedColumnFormula>AVERAGE(J42:J43)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="Front?"/>
-    <tableColumn id="4" name="Relative Difference" dataDxfId="1">
+    <tableColumn id="4" name="Relative Difference" dataDxfId="3">
       <calculatedColumnFormula>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Ratio" dataDxfId="0">
+    <tableColumn id="5" name="Ratio" dataDxfId="2">
       <calculatedColumnFormula>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="Current"/>
@@ -4865,315 +4971,315 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>37</v>
+      </c>
+      <c r="I47" t="s">
         <v>47</v>
-      </c>
-      <c r="B47" t="s">
-        <v>38</v>
-      </c>
-      <c r="I47" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" t="s">
-        <v>43</v>
-      </c>
-      <c r="H48" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="I48" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="J48" s="30">
+        <v>42</v>
+      </c>
+      <c r="H48" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="I48" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="J48" s="29">
         <v>1</v>
       </c>
-      <c r="K48" s="30">
+      <c r="K48" s="29">
         <v>2</v>
       </c>
-      <c r="L48" s="30">
+      <c r="L48" s="29">
         <v>3</v>
       </c>
-      <c r="M48" s="30">
+      <c r="M48" s="29">
         <v>4</v>
       </c>
-      <c r="N48" s="30">
+      <c r="N48" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" t="s">
         <v>39</v>
       </c>
-      <c r="B49" t="s">
+      <c r="D49" t="s">
         <v>40</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>41</v>
       </c>
-      <c r="E49" t="s">
-        <v>42</v>
-      </c>
-      <c r="H49" s="31">
+      <c r="H49" s="30">
         <v>5</v>
       </c>
-      <c r="I49" s="30">
+      <c r="I49" s="29">
         <v>1</v>
       </c>
-      <c r="J49" s="29">
+      <c r="J49" s="28">
         <v>63.29</v>
       </c>
-      <c r="K49" s="29">
+      <c r="K49" s="28">
         <v>62.47</v>
       </c>
-      <c r="L49" s="29">
+      <c r="L49" s="28">
         <v>61.03</v>
       </c>
-      <c r="M49" s="29">
+      <c r="M49" s="28">
         <v>57.9</v>
       </c>
-      <c r="N49" s="29">
+      <c r="N49" s="28">
         <v>57.17</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" t="s">
-        <v>37</v>
-      </c>
-      <c r="H50" s="31">
+        <v>36</v>
+      </c>
+      <c r="H50" s="30">
         <v>8</v>
       </c>
-      <c r="I50" s="30">
+      <c r="I50" s="29">
         <v>1</v>
       </c>
-      <c r="J50" s="29">
+      <c r="J50" s="28">
         <v>62.81</v>
       </c>
-      <c r="K50" s="29">
+      <c r="K50" s="28">
         <v>62.68</v>
       </c>
-      <c r="L50" s="29">
+      <c r="L50" s="28">
         <v>61.03</v>
       </c>
-      <c r="M50" s="29">
+      <c r="M50" s="28">
         <v>58.21</v>
       </c>
-      <c r="N50" s="34">
+      <c r="N50" s="33">
         <v>53.26</v>
       </c>
     </row>
     <row r="51" spans="1:14">
-      <c r="H51" s="31">
+      <c r="H51" s="30">
         <v>12</v>
       </c>
-      <c r="I51" s="30">
+      <c r="I51" s="29">
         <v>1</v>
       </c>
-      <c r="J51" s="29">
+      <c r="J51" s="28">
         <v>62.65</v>
       </c>
-      <c r="K51" s="29">
+      <c r="K51" s="28">
         <v>62.77</v>
       </c>
-      <c r="L51" s="29">
+      <c r="L51" s="28">
         <v>61.32</v>
       </c>
-      <c r="M51" s="29">
+      <c r="M51" s="28">
         <v>58.52</v>
       </c>
-      <c r="N51" s="29">
+      <c r="N51" s="28">
         <v>57.26</v>
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B52" s="30">
+      <c r="A52" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="29">
         <v>1</v>
       </c>
-      <c r="C52" s="30">
+      <c r="C52" s="29">
         <v>2</v>
       </c>
-      <c r="D52" s="30">
+      <c r="D52" s="29">
         <v>3</v>
       </c>
-      <c r="E52" s="30">
+      <c r="E52" s="29">
         <v>4</v>
       </c>
-      <c r="F52" s="30">
+      <c r="F52" s="29">
         <v>5</v>
       </c>
-      <c r="H52" s="31">
+      <c r="H52" s="30">
         <v>20</v>
       </c>
-      <c r="I52" s="30">
+      <c r="I52" s="29">
         <v>1</v>
       </c>
-      <c r="J52" s="29">
+      <c r="J52" s="28">
         <v>63.19</v>
       </c>
-      <c r="K52" s="29">
+      <c r="K52" s="28">
         <v>63.3</v>
       </c>
-      <c r="L52" s="29">
+      <c r="L52" s="28">
         <v>61.96</v>
       </c>
-      <c r="M52" s="29">
+      <c r="M52" s="28">
         <v>59.5</v>
       </c>
-      <c r="N52" s="29">
+      <c r="N52" s="28">
         <v>58.34</v>
       </c>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="30">
+      <c r="A53" s="29">
         <v>1</v>
       </c>
-      <c r="B53" s="29">
+      <c r="B53" s="28">
         <v>62.8</v>
       </c>
-      <c r="C53" s="29">
+      <c r="C53" s="28">
         <v>62.7</v>
       </c>
-      <c r="D53" s="29">
+      <c r="D53" s="28">
         <v>61</v>
       </c>
-      <c r="E53" s="29">
+      <c r="E53" s="28">
         <v>58.2</v>
       </c>
-      <c r="F53" s="29">
+      <c r="F53" s="28">
         <v>56.2</v>
       </c>
       <c r="I53" t="s">
-        <v>51</v>
-      </c>
-      <c r="J53" s="33">
+        <v>50</v>
+      </c>
+      <c r="J53" s="32">
         <f>VAR(J49:J52)</f>
         <v>9.2633333333332901E-2</v>
       </c>
-      <c r="K53" s="33">
+      <c r="K53" s="32">
         <f t="shared" ref="K53:N53" si="0">VAR(K49:K52)</f>
         <v>0.12469999999999927</v>
       </c>
-      <c r="L53" s="33">
+      <c r="L53" s="32">
         <f t="shared" si="0"/>
         <v>0.19229999999999992</v>
       </c>
-      <c r="M53" s="33">
+      <c r="M53" s="32">
         <f t="shared" si="0"/>
         <v>0.48009166666666703</v>
       </c>
-      <c r="N53" s="35">
+      <c r="N53" s="34">
         <f t="shared" si="0"/>
         <v>4.9698250000000082</v>
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="30">
+      <c r="A54" s="29">
         <v>2</v>
       </c>
-      <c r="B54" s="29">
+      <c r="B54" s="28">
         <v>65.099999999999994</v>
       </c>
-      <c r="C54" s="29">
+      <c r="C54" s="28">
         <v>66.8</v>
       </c>
-      <c r="D54" s="29">
+      <c r="D54" s="28">
         <v>67.099999999999994</v>
       </c>
-      <c r="E54" s="29">
+      <c r="E54" s="28">
         <v>66.2</v>
       </c>
-      <c r="F54" s="29">
+      <c r="F54" s="28">
         <v>60.4</v>
       </c>
       <c r="I54" t="s">
-        <v>45</v>
-      </c>
-      <c r="J54" s="33">
+        <v>44</v>
+      </c>
+      <c r="J54" s="32">
         <f>AVERAGE(J49:J52)</f>
         <v>62.984999999999999</v>
       </c>
-      <c r="K54" s="33">
+      <c r="K54" s="32">
         <f t="shared" ref="K54:N54" si="1">AVERAGE(K49:K52)</f>
         <v>62.805000000000007</v>
       </c>
-      <c r="L54" s="33">
+      <c r="L54" s="32">
         <f t="shared" si="1"/>
         <v>61.335000000000001</v>
       </c>
-      <c r="M54" s="33">
+      <c r="M54" s="32">
         <f t="shared" si="1"/>
         <v>58.532499999999999</v>
       </c>
-      <c r="N54" s="33">
+      <c r="N54" s="32">
         <f t="shared" si="1"/>
         <v>56.5075</v>
       </c>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="30">
+      <c r="A55" s="29">
         <v>3</v>
       </c>
-      <c r="B55" s="29">
+      <c r="B55" s="28">
         <v>67.599999999999994</v>
       </c>
-      <c r="C55" s="29">
+      <c r="C55" s="28">
         <v>68.3</v>
       </c>
-      <c r="D55" s="29">
+      <c r="D55" s="28">
         <v>66.099999999999994</v>
       </c>
-      <c r="E55" s="29">
+      <c r="E55" s="28">
         <v>66.3</v>
       </c>
-      <c r="F55" s="29">
+      <c r="F55" s="28">
         <v>58.7</v>
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="30">
+      <c r="A56" s="29">
         <v>4</v>
       </c>
-      <c r="B56" s="29">
+      <c r="B56" s="28">
         <v>64.099999999999994</v>
       </c>
-      <c r="C56" s="29">
+      <c r="C56" s="28">
         <v>70.5</v>
       </c>
-      <c r="D56" s="29">
+      <c r="D56" s="28">
         <v>68.900000000000006</v>
       </c>
-      <c r="E56" s="29">
+      <c r="E56" s="28">
         <v>64.900000000000006</v>
       </c>
-      <c r="F56" s="29">
+      <c r="F56" s="28">
         <v>58.6</v>
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="30">
+      <c r="A57" s="29">
         <v>5</v>
       </c>
-      <c r="B57" s="29">
+      <c r="B57" s="28">
         <v>63.8</v>
       </c>
-      <c r="C57" s="29">
+      <c r="C57" s="28">
         <v>64.2</v>
       </c>
-      <c r="D57" s="29">
+      <c r="D57" s="28">
         <v>61.6</v>
       </c>
-      <c r="E57" s="29">
+      <c r="E57" s="28">
         <v>61</v>
       </c>
-      <c r="F57" s="29">
+      <c r="F57" s="28">
         <v>57.6</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B58">
         <f>VAR(B53:F57)</f>
@@ -5182,14 +5288,14 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B59">
         <f>AVERAGE(B53:F57)</f>
         <v>63.547999999999995</v>
       </c>
       <c r="I59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -5204,13 +5310,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W92"/>
+  <dimension ref="A1:W102"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J83" sqref="J83"/>
+      <selection pane="bottomRight" activeCell="Q65" sqref="Q65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -5218,7 +5324,7 @@
     <col min="1" max="1" width="11.21875" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="4" max="4" width="21.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="5" max="5" width="12.21875" customWidth="1"/>
     <col min="6" max="8" width="11.21875" customWidth="1"/>
     <col min="9" max="9" width="13.77734375" customWidth="1"/>
@@ -5227,8 +5333,9 @@
     <col min="12" max="12" width="15.44140625" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" customWidth="1"/>
     <col min="14" max="14" width="14.33203125" customWidth="1"/>
-    <col min="15" max="15" width="16" customWidth="1"/>
-    <col min="16" max="18" width="11.88671875" customWidth="1"/>
+    <col min="15" max="15" width="8.33203125" customWidth="1"/>
+    <col min="16" max="16" width="9.77734375" customWidth="1"/>
+    <col min="17" max="18" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.6">
@@ -5236,7 +5343,7 @@
         <v>11</v>
       </c>
       <c r="K1" s="37"/>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5269,22 +5376,25 @@
         <v>18</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="20" t="s">
         <v>21</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>27</v>
+        <v>66</v>
+      </c>
+      <c r="P2" s="44" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="16.2" hidden="1" thickTop="1">
@@ -5312,7 +5422,7 @@
       <c r="H3" s="2">
         <v>10</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="15">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>2.8</v>
       </c>
@@ -5322,7 +5432,7 @@
       <c r="K3" s="9">
         <v>0</v>
       </c>
-      <c r="L3" s="16">
+      <c r="L3" s="15">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>1</v>
       </c>
@@ -5336,6 +5446,7 @@
       <c r="O3" s="11">
         <v>0.68200000000000005</v>
       </c>
+      <c r="P3" s="43"/>
     </row>
     <row r="4" spans="1:16" ht="16.2" hidden="1" thickTop="1">
       <c r="A4" s="1">
@@ -5362,7 +5473,7 @@
       <c r="H4" s="2">
         <v>10</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>4</v>
       </c>
@@ -5372,7 +5483,7 @@
       <c r="K4" s="7">
         <v>0</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="15">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>1</v>
       </c>
@@ -5386,6 +5497,7 @@
       <c r="O4" s="11">
         <v>0.68200000000000005</v>
       </c>
+      <c r="P4" s="43"/>
     </row>
     <row r="5" spans="1:16" ht="16.2" hidden="1" thickTop="1">
       <c r="A5" s="1">
@@ -5412,7 +5524,7 @@
       <c r="H5" s="2">
         <v>10</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="15">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>2.4</v>
       </c>
@@ -5422,7 +5534,7 @@
       <c r="K5" s="9">
         <v>0</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="15">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>1</v>
       </c>
@@ -5436,6 +5548,7 @@
       <c r="O5" s="11">
         <v>0.68200000000000005</v>
       </c>
+      <c r="P5" s="43"/>
     </row>
     <row r="6" spans="1:16" ht="16.2" hidden="1" thickTop="1">
       <c r="A6" s="1">
@@ -5462,7 +5575,7 @@
       <c r="H6" s="8">
         <v>20</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="18">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>2.4</v>
       </c>
@@ -5472,7 +5585,7 @@
       <c r="K6" s="8">
         <v>0</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="18">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>1</v>
       </c>
@@ -5483,9 +5596,10 @@
       <c r="N6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="15">
+      <c r="O6" s="14">
         <v>0.59699999999999998</v>
       </c>
+      <c r="P6" s="43"/>
     </row>
     <row r="7" spans="1:16" ht="16.2" hidden="1" thickTop="1">
       <c r="A7" s="1">
@@ -5512,7 +5626,7 @@
       <c r="H7" s="8">
         <v>20</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="18">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>2.8</v>
       </c>
@@ -5522,7 +5636,7 @@
       <c r="K7" s="8">
         <v>0</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="18">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>1</v>
       </c>
@@ -5533,9 +5647,10 @@
       <c r="N7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="15">
+      <c r="O7" s="14">
         <v>0.59699999999999998</v>
       </c>
+      <c r="P7" s="43"/>
     </row>
     <row r="8" spans="1:16" ht="16.2" hidden="1" thickTop="1">
       <c r="A8" s="1">
@@ -5562,7 +5677,7 @@
       <c r="H8" s="8">
         <v>20</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="18">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>3.2</v>
       </c>
@@ -5572,7 +5687,7 @@
       <c r="K8" s="8">
         <v>0</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="18">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>1</v>
       </c>
@@ -5583,9 +5698,10 @@
       <c r="N8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="15">
+      <c r="O8" s="14">
         <v>0.59699999999999998</v>
       </c>
+      <c r="P8" s="43"/>
     </row>
     <row r="9" spans="1:16" ht="16.2" hidden="1" thickTop="1">
       <c r="A9" s="1">
@@ -5612,7 +5728,7 @@
       <c r="H9" s="8">
         <v>20</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="18">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>3.6</v>
       </c>
@@ -5622,7 +5738,7 @@
       <c r="K9" s="8">
         <v>0</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="18">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>1</v>
       </c>
@@ -5633,9 +5749,10 @@
       <c r="N9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="15">
+      <c r="O9" s="14">
         <v>0.59699999999999998</v>
       </c>
+      <c r="P9" s="43"/>
     </row>
     <row r="10" spans="1:16" ht="16.2" hidden="1" thickTop="1">
       <c r="A10" s="1">
@@ -5662,7 +5779,7 @@
       <c r="H10" s="8">
         <v>20</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="18">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>4</v>
       </c>
@@ -5672,7 +5789,7 @@
       <c r="K10" s="8">
         <v>0</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="18">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>1</v>
       </c>
@@ -5683,9 +5800,10 @@
       <c r="N10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O10" s="14">
         <v>0.59699999999999998</v>
       </c>
+      <c r="P10" s="43"/>
     </row>
     <row r="11" spans="1:16" ht="16.2" hidden="1" thickTop="1">
       <c r="A11" s="1">
@@ -5712,7 +5830,7 @@
       <c r="H11" s="2">
         <v>10</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="15">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>3.6</v>
       </c>
@@ -5722,7 +5840,7 @@
       <c r="K11" s="9">
         <v>19</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="15">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.44927536231884058</v>
       </c>
@@ -5736,6 +5854,7 @@
       <c r="O11" s="11">
         <v>0.68200000000000005</v>
       </c>
+      <c r="P11" s="43"/>
     </row>
     <row r="12" spans="1:16" ht="16.2" hidden="1" thickTop="1">
       <c r="A12" s="1">
@@ -5762,7 +5881,7 @@
       <c r="H12" s="2">
         <v>10</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="15">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>3.2</v>
       </c>
@@ -5772,7 +5891,7 @@
       <c r="K12" s="9">
         <v>20</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="15">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.33333333333333331</v>
       </c>
@@ -5786,6 +5905,7 @@
       <c r="O12" s="11">
         <v>0.68200000000000005</v>
       </c>
+      <c r="P12" s="43"/>
     </row>
     <row r="13" spans="1:16" ht="16.2" hidden="1" thickTop="1">
       <c r="A13" s="3">
@@ -5812,7 +5932,7 @@
       <c r="H13" s="8">
         <v>30</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="17">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>2.4000011999999997</v>
       </c>
@@ -5822,7 +5942,7 @@
       <c r="K13" s="12">
         <v>20.5</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="17">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.28446771378708546</v>
       </c>
@@ -5833,10 +5953,10 @@
       <c r="N13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O13" s="14">
         <v>0.45800000000000002</v>
       </c>
-      <c r="P13" s="14"/>
+      <c r="P13" s="43"/>
     </row>
     <row r="14" spans="1:16" ht="16.2" thickTop="1">
       <c r="A14" s="3">
@@ -5849,7 +5969,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2">
         <v>1.2</v>
@@ -5863,7 +5983,7 @@
       <c r="H14" s="12">
         <v>30</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="17">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>2.4000011999999997</v>
       </c>
@@ -5873,7 +5993,7 @@
       <c r="K14" s="12">
         <v>22.2</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L14" s="17">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.30948678071539665</v>
       </c>
@@ -5887,7 +6007,9 @@
       <c r="O14" s="13">
         <v>0.45800000000000002</v>
       </c>
-      <c r="P14" s="14"/>
+      <c r="P14" s="43">
+        <v>100</v>
+      </c>
     </row>
     <row r="15" spans="1:16" ht="15.6">
       <c r="A15" s="3">
@@ -5900,7 +6022,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" s="2">
         <v>1.2</v>
@@ -5914,7 +6036,7 @@
       <c r="H15" s="12">
         <v>30</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="17">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>2.4000011999999997</v>
       </c>
@@ -5922,7 +6044,7 @@
       <c r="K15" s="12">
         <v>23.1</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L15" s="17">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>-1</v>
       </c>
@@ -5936,7 +6058,9 @@
       <c r="O15" s="13">
         <v>0.45800000000000002</v>
       </c>
-      <c r="P15" s="14"/>
+      <c r="P15" s="43">
+        <v>100</v>
+      </c>
     </row>
     <row r="16" spans="1:16" ht="15.6" hidden="1">
       <c r="A16" s="3">
@@ -5963,7 +6087,7 @@
       <c r="H16" s="12">
         <v>30</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="17">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>2.8000013999999993</v>
       </c>
@@ -5973,7 +6097,7 @@
       <c r="K16" s="12">
         <v>25.1</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="17">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.23006134969325151</v>
       </c>
@@ -5987,7 +6111,7 @@
       <c r="O16" s="13">
         <v>0.45800000000000002</v>
       </c>
-      <c r="P16" s="14"/>
+      <c r="P16" s="43"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
       <c r="A17" s="1">
@@ -6000,7 +6124,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" s="2">
         <v>1.4</v>
@@ -6014,7 +6138,7 @@
       <c r="H17" s="12">
         <v>30</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="18">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>2.8000013999999993</v>
       </c>
@@ -6024,7 +6148,7 @@
       <c r="K17" s="8">
         <v>25.4</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L17" s="18">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.30315500685871055</v>
       </c>
@@ -6038,7 +6162,9 @@
       <c r="O17" s="13">
         <v>0.45800000000000002</v>
       </c>
-      <c r="P17" s="14"/>
+      <c r="P17" s="43">
+        <v>100</v>
+      </c>
     </row>
     <row r="18" spans="1:17" ht="15.6" hidden="1">
       <c r="A18" s="1">
@@ -6065,7 +6191,7 @@
       <c r="H18" s="12">
         <v>30</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="18">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>3.2000015999999998</v>
       </c>
@@ -6075,7 +6201,7 @@
       <c r="K18" s="8">
         <v>26.1</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L18" s="18">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.2474048442906574</v>
       </c>
@@ -6089,9 +6215,9 @@
       <c r="O18" s="13">
         <v>0.45800000000000002</v>
       </c>
-      <c r="P18" s="14"/>
+      <c r="P18" s="43"/>
       <c r="Q18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="15.6" hidden="1">
@@ -6119,7 +6245,7 @@
       <c r="H19" s="8">
         <v>50</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="18">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>2.4</v>
       </c>
@@ -6129,7 +6255,7 @@
       <c r="K19" s="8">
         <v>26.3</v>
       </c>
-      <c r="L19" s="19">
+      <c r="L19" s="18">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.14052287581699341</v>
       </c>
@@ -6140,9 +6266,10 @@
       <c r="N19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O19" s="15">
+      <c r="O19" s="14">
         <v>0.52600000000000002</v>
       </c>
+      <c r="P19" s="43"/>
     </row>
     <row r="20" spans="1:17" ht="15.6">
       <c r="A20" s="1">
@@ -6155,7 +6282,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" s="2">
         <v>1.2</v>
@@ -6169,7 +6296,7 @@
       <c r="H20" s="8">
         <v>50</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="18">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>2.4</v>
       </c>
@@ -6179,7 +6306,7 @@
       <c r="K20" s="8">
         <v>26.4</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L20" s="18">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.20720720720720728</v>
       </c>
@@ -6190,8 +6317,11 @@
       <c r="N20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O20" s="15">
+      <c r="O20" s="14">
         <v>0.52600000000000002</v>
+      </c>
+      <c r="P20" s="43">
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="15.6">
@@ -6205,7 +6335,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21" s="2">
         <v>1.4</v>
@@ -6219,7 +6349,7 @@
       <c r="H21" s="8">
         <v>30</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="18">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>2.8000013999999993</v>
       </c>
@@ -6227,7 +6357,7 @@
       <c r="K21" s="8">
         <v>26.7</v>
       </c>
-      <c r="L21" s="19">
+      <c r="L21" s="18">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>-1</v>
       </c>
@@ -6238,8 +6368,11 @@
       <c r="N21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O21" s="15">
+      <c r="O21" s="14">
         <v>0.45800000000000002</v>
+      </c>
+      <c r="P21" s="43">
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="15.6">
@@ -6253,7 +6386,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22" s="2">
         <v>1.6</v>
@@ -6267,7 +6400,7 @@
       <c r="H22" s="8">
         <v>30</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="18">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>3.2000015999999998</v>
       </c>
@@ -6277,7 +6410,7 @@
       <c r="K22" s="8">
         <v>28.8</v>
       </c>
-      <c r="L22" s="19">
+      <c r="L22" s="18">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.2772898368883312</v>
       </c>
@@ -6288,8 +6421,11 @@
       <c r="N22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O22" s="15">
+      <c r="O22" s="14">
         <v>0.45800000000000002</v>
+      </c>
+      <c r="P22" s="43">
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="15.6" hidden="1">
@@ -6317,7 +6453,7 @@
       <c r="H23" s="8">
         <v>50</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="18">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>2.8</v>
       </c>
@@ -6327,7 +6463,7 @@
       <c r="K23" s="8">
         <v>30.6</v>
       </c>
-      <c r="L23" s="19">
+      <c r="L23" s="18">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.12696148359486448</v>
       </c>
@@ -6338,9 +6474,10 @@
       <c r="N23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O23" s="15">
+      <c r="O23" s="14">
         <v>0.52600000000000002</v>
       </c>
+      <c r="P23" s="43"/>
     </row>
     <row r="24" spans="1:17" ht="15.6" hidden="1">
       <c r="A24" s="1">
@@ -6367,7 +6504,7 @@
       <c r="H24" s="8">
         <v>30</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="18">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>3.6000017999999994</v>
       </c>
@@ -6377,7 +6514,7 @@
       <c r="K24" s="8">
         <v>31</v>
       </c>
-      <c r="L24" s="19">
+      <c r="L24" s="18">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.20205920205920208</v>
       </c>
@@ -6388,9 +6525,10 @@
       <c r="N24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O24" s="15">
+      <c r="O24" s="14">
         <v>0.45800000000000002</v>
       </c>
+      <c r="P24" s="43"/>
     </row>
     <row r="25" spans="1:17" ht="15.6" hidden="1">
       <c r="A25" s="3">
@@ -6417,7 +6555,7 @@
       <c r="H25" s="2">
         <v>10</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>2.4</v>
       </c>
@@ -6425,7 +6563,7 @@
       <c r="K25" s="12">
         <v>31</v>
       </c>
-      <c r="L25" s="17">
+      <c r="L25" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>-1</v>
       </c>
@@ -6439,6 +6577,7 @@
       <c r="O25" s="11">
         <v>0.68200000000000005</v>
       </c>
+      <c r="P25" s="43"/>
     </row>
     <row r="26" spans="1:17" ht="15.6">
       <c r="A26" s="3">
@@ -6451,7 +6590,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26" s="2">
         <v>1.8</v>
@@ -6465,7 +6604,7 @@
       <c r="H26" s="8">
         <v>30</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I26" s="17">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>3.6000017999999994</v>
       </c>
@@ -6475,7 +6614,7 @@
       <c r="K26" s="12">
         <v>32.799999999999997</v>
       </c>
-      <c r="L26" s="18">
+      <c r="L26" s="17">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.24510932105868818</v>
       </c>
@@ -6486,8 +6625,11 @@
       <c r="N26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O26" s="15">
+      <c r="O26" s="14">
         <v>0.45800000000000002</v>
+      </c>
+      <c r="P26" s="43">
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="15.6">
@@ -6501,7 +6643,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E27" s="2">
         <v>1.4</v>
@@ -6515,7 +6657,7 @@
       <c r="H27" s="8">
         <v>50</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="17">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>2.8</v>
       </c>
@@ -6525,7 +6667,7 @@
       <c r="K27" s="12">
         <v>33.9</v>
       </c>
-      <c r="L27" s="18">
+      <c r="L27" s="17">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.153558052434457</v>
       </c>
@@ -6536,8 +6678,11 @@
       <c r="N27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O27" s="15">
+      <c r="O27" s="14">
         <v>0.52600000000000002</v>
+      </c>
+      <c r="P27" s="43">
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="15.6" hidden="1">
@@ -6565,7 +6710,7 @@
       <c r="H28" s="8">
         <v>50</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>3.2</v>
       </c>
@@ -6575,7 +6720,7 @@
       <c r="K28" s="12">
         <v>34.799999999999997</v>
       </c>
-      <c r="L28" s="17">
+      <c r="L28" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.11898734177215196</v>
       </c>
@@ -6586,9 +6731,10 @@
       <c r="N28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O28" s="15">
+      <c r="O28" s="14">
         <v>0.52600000000000002</v>
       </c>
+      <c r="P28" s="43"/>
     </row>
     <row r="29" spans="1:17" ht="15.6" hidden="1">
       <c r="A29" s="1">
@@ -6615,7 +6761,7 @@
       <c r="H29" s="8">
         <v>30</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="18">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>4.0000019999999994</v>
       </c>
@@ -6625,7 +6771,7 @@
       <c r="K29" s="8">
         <v>35.6</v>
       </c>
-      <c r="L29" s="19">
+      <c r="L29" s="18">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.1484272216242076</v>
       </c>
@@ -6636,9 +6782,10 @@
       <c r="N29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O29" s="15">
+      <c r="O29" s="14">
         <v>0.45800000000000002</v>
       </c>
+      <c r="P29" s="43"/>
     </row>
     <row r="30" spans="1:17" ht="15.6" hidden="1">
       <c r="A30" s="1">
@@ -6665,7 +6812,7 @@
       <c r="H30" s="8">
         <v>50</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I30" s="15">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>3.6</v>
       </c>
@@ -6675,7 +6822,7 @@
       <c r="K30" s="8">
         <v>37.299999999999997</v>
       </c>
-      <c r="L30" s="16">
+      <c r="L30" s="15">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.1001206272617612</v>
       </c>
@@ -6686,9 +6833,10 @@
       <c r="N30" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O30" s="15">
+      <c r="O30" s="14">
         <v>0.52600000000000002</v>
       </c>
+      <c r="P30" s="43"/>
     </row>
     <row r="31" spans="1:17" ht="15.6">
       <c r="A31" s="1">
@@ -6701,7 +6849,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E31" s="2">
         <v>1.6</v>
@@ -6715,7 +6863,7 @@
       <c r="H31" s="8">
         <v>50</v>
       </c>
-      <c r="I31" s="16">
+      <c r="I31" s="15">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>3.2</v>
       </c>
@@ -6725,7 +6873,7 @@
       <c r="K31" s="8">
         <v>37.299999999999997</v>
       </c>
-      <c r="L31" s="16">
+      <c r="L31" s="15">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.15706214689265544</v>
       </c>
@@ -6736,8 +6884,11 @@
       <c r="N31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O31" s="15">
+      <c r="O31" s="14">
         <v>0.52600000000000002</v>
+      </c>
+      <c r="P31" s="43">
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="15.6" hidden="1">
@@ -6765,7 +6916,7 @@
       <c r="H32" s="8">
         <v>50</v>
       </c>
-      <c r="I32" s="16">
+      <c r="I32" s="15">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>4</v>
       </c>
@@ -6775,7 +6926,7 @@
       <c r="K32" s="8">
         <v>39</v>
       </c>
-      <c r="L32" s="16">
+      <c r="L32" s="15">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>7.6923076923076927E-2</v>
       </c>
@@ -6786,9 +6937,10 @@
       <c r="N32" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O32" s="15">
+      <c r="O32" s="14">
         <v>0.52600000000000002</v>
       </c>
+      <c r="P32" s="43"/>
     </row>
     <row r="33" spans="1:23" ht="15.6">
       <c r="A33" s="1">
@@ -6801,7 +6953,7 @@
         <v>4</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E33" s="2">
         <v>1.8</v>
@@ -6815,7 +6967,7 @@
       <c r="H33" s="8">
         <v>50</v>
       </c>
-      <c r="I33" s="16">
+      <c r="I33" s="15">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>3.6</v>
       </c>
@@ -6825,7 +6977,7 @@
       <c r="K33" s="8">
         <v>40</v>
       </c>
-      <c r="L33" s="16">
+      <c r="L33" s="15">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.14893617021276595</v>
       </c>
@@ -6836,8 +6988,11 @@
       <c r="N33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O33" s="15">
+      <c r="O33" s="14">
         <v>0.52600000000000002</v>
+      </c>
+      <c r="P33" s="43">
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="15.6">
@@ -6851,7 +7006,7 @@
         <v>4</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E34" s="4">
         <v>2</v>
@@ -6865,7 +7020,7 @@
       <c r="H34" s="8">
         <v>30</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I34" s="18">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>4.0000019999999994</v>
       </c>
@@ -6875,7 +7030,7 @@
       <c r="K34" s="8">
         <v>40.299999999999997</v>
       </c>
-      <c r="L34" s="19">
+      <c r="L34" s="18">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.15247108307045215</v>
       </c>
@@ -6886,8 +7041,11 @@
       <c r="N34" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O34" s="15">
+      <c r="O34" s="14">
         <v>0.45800000000000002</v>
+      </c>
+      <c r="P34" s="43">
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="15.6">
@@ -6901,7 +7059,7 @@
         <v>4</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E35" s="4">
         <v>2</v>
@@ -6915,7 +7073,7 @@
       <c r="H35" s="8">
         <v>30</v>
       </c>
-      <c r="I35" s="19">
+      <c r="I35" s="18">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>4.0000019999999994</v>
       </c>
@@ -6923,7 +7081,7 @@
       <c r="K35" s="8">
         <v>42</v>
       </c>
-      <c r="L35" s="19">
+      <c r="L35" s="18">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>-1</v>
       </c>
@@ -6934,11 +7092,14 @@
       <c r="N35" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O35" s="15">
+      <c r="O35" s="14">
         <v>0.45800000000000002</v>
       </c>
+      <c r="P35" s="43">
+        <v>100</v>
+      </c>
       <c r="Q35" s="38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R35" s="38"/>
       <c r="S35" s="38"/>
@@ -6958,7 +7119,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E36" s="2">
         <v>2</v>
@@ -6972,7 +7133,7 @@
       <c r="H36" s="8">
         <v>50</v>
       </c>
-      <c r="I36" s="16">
+      <c r="I36" s="15">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>4</v>
       </c>
@@ -6982,7 +7143,7 @@
       <c r="K36" s="8">
         <v>42.7</v>
       </c>
-      <c r="L36" s="16">
+      <c r="L36" s="15">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.11594202898550721</v>
       </c>
@@ -6993,8 +7154,11 @@
       <c r="N36" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O36" s="15">
+      <c r="O36" s="14">
         <v>0.52600000000000002</v>
+      </c>
+      <c r="P36" s="43">
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="15.6" hidden="1">
@@ -7022,7 +7186,7 @@
       <c r="H37" s="2">
         <v>10</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I37" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>2.8</v>
       </c>
@@ -7030,7 +7194,7 @@
       <c r="K37" s="12">
         <v>50</v>
       </c>
-      <c r="L37" s="17">
+      <c r="L37" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>-1</v>
       </c>
@@ -7044,6 +7208,7 @@
       <c r="O37" s="11">
         <v>0.68200000000000005</v>
       </c>
+      <c r="P37" s="43"/>
     </row>
     <row r="38" spans="1:23" ht="15.6" hidden="1">
       <c r="A38" s="3">
@@ -7070,7 +7235,7 @@
       <c r="H38" s="2">
         <v>10</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I38" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>3.2</v>
       </c>
@@ -7078,7 +7243,7 @@
       <c r="K38" s="12">
         <v>51</v>
       </c>
-      <c r="L38" s="17">
+      <c r="L38" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>-1</v>
       </c>
@@ -7092,6 +7257,7 @@
       <c r="O38" s="11">
         <v>0.68200000000000005</v>
       </c>
+      <c r="P38" s="43"/>
     </row>
     <row r="39" spans="1:23" ht="15.6" hidden="1">
       <c r="A39" s="3">
@@ -7118,7 +7284,7 @@
       <c r="H39" s="2">
         <v>10</v>
       </c>
-      <c r="I39" s="17">
+      <c r="I39" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>3.6</v>
       </c>
@@ -7126,7 +7292,7 @@
       <c r="K39" s="12">
         <v>52.3</v>
       </c>
-      <c r="L39" s="17">
+      <c r="L39" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>-1</v>
       </c>
@@ -7140,6 +7306,7 @@
       <c r="O39" s="11">
         <v>0.68200000000000005</v>
       </c>
+      <c r="P39" s="43"/>
     </row>
     <row r="40" spans="1:23" ht="15.6" hidden="1">
       <c r="A40" s="3">
@@ -7166,7 +7333,7 @@
       <c r="H40" s="2">
         <v>10</v>
       </c>
-      <c r="I40" s="17">
+      <c r="I40" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>4</v>
       </c>
@@ -7174,7 +7341,7 @@
       <c r="K40" s="12">
         <v>66</v>
       </c>
-      <c r="L40" s="17">
+      <c r="L40" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>-1</v>
       </c>
@@ -7188,6 +7355,7 @@
       <c r="O40" s="11">
         <v>0.68200000000000005</v>
       </c>
+      <c r="P40" s="43"/>
     </row>
     <row r="41" spans="1:23" ht="15.6">
       <c r="A41" s="1">
@@ -7200,7 +7368,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E41" s="4">
         <v>0.6</v>
@@ -7214,7 +7382,7 @@
       <c r="H41" s="12">
         <v>2</v>
       </c>
-      <c r="I41" s="17">
+      <c r="I41" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>0.36</v>
       </c>
@@ -7224,7 +7392,7 @@
       <c r="K41" s="10">
         <v>59.94</v>
       </c>
-      <c r="L41" s="17">
+      <c r="L41" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>2.4493449426316261E-2</v>
       </c>
@@ -7232,13 +7400,16 @@
         <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>0.95218427323272425</v>
       </c>
-      <c r="N41" s="26" t="s">
-        <v>33</v>
+      <c r="N41" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="O41" s="13">
         <v>6.33</v>
       </c>
-      <c r="R41" s="25">
+      <c r="P41" s="43">
+        <v>30</v>
+      </c>
+      <c r="R41" s="24">
         <v>0.05</v>
       </c>
     </row>
@@ -7253,7 +7424,7 @@
         <v>4</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E42" s="4">
         <v>1</v>
@@ -7267,7 +7438,7 @@
       <c r="H42" s="12">
         <v>2</v>
       </c>
-      <c r="I42" s="17">
+      <c r="I42" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>0.6</v>
       </c>
@@ -7279,7 +7450,7 @@
         <f>(76.36+77.6)/2</f>
         <v>76.97999999999999</v>
       </c>
-      <c r="L42" s="17">
+      <c r="L42" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>-3.9357321271855698E-2</v>
       </c>
@@ -7287,13 +7458,16 @@
         <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>1.0819395643007728</v>
       </c>
-      <c r="N42" s="26" t="s">
-        <v>33</v>
+      <c r="N42" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="O42" s="13">
         <v>6.33</v>
       </c>
-      <c r="R42" s="25">
+      <c r="P42" s="43">
+        <v>30</v>
+      </c>
+      <c r="R42" s="24">
         <v>0.05</v>
       </c>
     </row>
@@ -7308,7 +7482,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E43" s="2">
         <v>1.4</v>
@@ -7322,7 +7496,7 @@
       <c r="H43" s="12">
         <v>2</v>
       </c>
-      <c r="I43" s="17">
+      <c r="I43" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>0.84</v>
       </c>
@@ -7332,7 +7506,7 @@
       <c r="K43" s="8">
         <v>79.540000000000006</v>
       </c>
-      <c r="L43" s="17">
+      <c r="L43" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>-6.3511164594197075E-2</v>
       </c>
@@ -7340,13 +7514,16 @@
         <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>1.1356367789834381</v>
       </c>
-      <c r="N43" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="O43" s="15">
+      <c r="N43" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="O43" s="14">
         <v>6.33</v>
       </c>
-      <c r="R43" s="25">
+      <c r="P43" s="43">
+        <v>30</v>
+      </c>
+      <c r="R43" s="24">
         <v>0.5</v>
       </c>
     </row>
@@ -7361,7 +7538,7 @@
         <v>4</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E44" s="2">
         <v>0.6</v>
@@ -7375,7 +7552,7 @@
       <c r="H44" s="12">
         <v>20</v>
       </c>
-      <c r="I44" s="17">
+      <c r="I44" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>0.24</v>
       </c>
@@ -7385,7 +7562,7 @@
       <c r="K44" s="8">
         <v>49</v>
       </c>
-      <c r="L44" s="17">
+      <c r="L44" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>8.5988872028325888E-3</v>
       </c>
@@ -7393,13 +7570,16 @@
         <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>0.98294884653961878</v>
       </c>
-      <c r="N44" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="O44" s="15">
+      <c r="N44" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="O44" s="14">
         <v>6.3520000000000003</v>
       </c>
-      <c r="R44" s="25">
+      <c r="P44" s="43">
+        <v>30</v>
+      </c>
+      <c r="R44" s="24">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -7414,7 +7594,7 @@
         <v>4</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E45" s="2">
         <v>1.4</v>
@@ -7428,7 +7608,7 @@
       <c r="H45" s="12">
         <v>20</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I45" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>0.55999999999999994</v>
       </c>
@@ -7438,7 +7618,7 @@
       <c r="K45" s="8">
         <v>67.3</v>
       </c>
-      <c r="L45" s="17">
+      <c r="L45" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>-6.6561014263074481E-2</v>
       </c>
@@ -7446,12 +7626,13 @@
         <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>1.1426146010186757</v>
       </c>
-      <c r="N45" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="O45" s="15">
+      <c r="N45" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="O45" s="14">
         <v>6.3520000000000003</v>
       </c>
+      <c r="P45" s="43"/>
     </row>
     <row r="46" spans="1:23" ht="15.6">
       <c r="A46" s="1">
@@ -7464,7 +7645,7 @@
         <v>4</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E46" s="4">
         <v>0.6</v>
@@ -7478,7 +7659,7 @@
       <c r="H46" s="12">
         <v>20</v>
       </c>
-      <c r="I46" s="17">
+      <c r="I46" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>0.24</v>
       </c>
@@ -7488,7 +7669,7 @@
       <c r="K46" s="8">
         <v>49.5</v>
       </c>
-      <c r="L46" s="17">
+      <c r="L46" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.01</v>
       </c>
@@ -7496,11 +7677,14 @@
         <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>0.98019801980198018</v>
       </c>
-      <c r="N46" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="O46" s="15">
+      <c r="N46" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="O46" s="14">
         <v>6.3520000000000003</v>
+      </c>
+      <c r="P46" s="43">
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="15.6">
@@ -7514,7 +7698,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E47" s="2">
         <v>0.6</v>
@@ -7528,7 +7712,7 @@
       <c r="H47" s="12">
         <v>20</v>
       </c>
-      <c r="I47" s="17">
+      <c r="I47" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>0.36</v>
       </c>
@@ -7538,7 +7722,7 @@
       <c r="K47" s="8">
         <v>55.2</v>
       </c>
-      <c r="L47" s="17">
+      <c r="L47" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>2.0408163265306097E-2</v>
       </c>
@@ -7546,11 +7730,14 @@
         <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>0.96000000000000008</v>
       </c>
-      <c r="N47" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="O47" s="15">
+      <c r="N47" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="O47" s="14">
         <v>6.24</v>
+      </c>
+      <c r="P47" s="43">
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="15.6">
@@ -7564,7 +7751,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E48" s="2">
         <v>1</v>
@@ -7578,7 +7765,7 @@
       <c r="H48" s="12">
         <v>20</v>
       </c>
-      <c r="I48" s="17">
+      <c r="I48" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>0.4</v>
       </c>
@@ -7588,7 +7775,7 @@
       <c r="K48" s="8">
         <v>65.2</v>
       </c>
-      <c r="L48" s="17">
+      <c r="L48" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>-8.2157676348547759E-2</v>
       </c>
@@ -7596,11 +7783,14 @@
         <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>1.1790235081374323</v>
       </c>
-      <c r="N48" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="O48" s="15">
+      <c r="N48" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="O48" s="14">
         <v>6.3520000000000003</v>
+      </c>
+      <c r="P48" s="43">
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="15.6">
@@ -7614,7 +7804,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E49" s="4">
         <v>1</v>
@@ -7628,7 +7818,7 @@
       <c r="H49" s="8">
         <v>20</v>
       </c>
-      <c r="I49" s="17">
+      <c r="I49" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>0.4</v>
       </c>
@@ -7638,7 +7828,7 @@
       <c r="K49" s="8">
         <v>64.77</v>
       </c>
-      <c r="L49" s="17">
+      <c r="L49" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>-6.819493691762181E-2</v>
       </c>
@@ -7646,11 +7836,14 @@
         <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>1.146371681415929</v>
       </c>
-      <c r="N49" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="O49" s="15">
+      <c r="N49" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="O49" s="14">
         <v>6.3520000000000003</v>
+      </c>
+      <c r="P49" s="43">
+        <v>30</v>
       </c>
       <c r="R49">
         <f>(60.1265+59.3232)/2</f>
@@ -7668,7 +7861,7 @@
         <v>4</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E50" s="2">
         <v>1.4</v>
@@ -7682,17 +7875,17 @@
       <c r="H50" s="8">
         <v>20</v>
       </c>
-      <c r="I50" s="17">
+      <c r="I50" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>0.55999999999999994</v>
       </c>
-      <c r="J50" s="24">
+      <c r="J50" s="23">
         <v>59.7</v>
       </c>
       <c r="K50" s="8">
         <v>68.8</v>
       </c>
-      <c r="L50" s="17">
+      <c r="L50" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>-7.081712062256805E-2</v>
       </c>
@@ -7700,11 +7893,14 @@
         <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>1.1524288107202678</v>
       </c>
-      <c r="N50" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="O50" s="15">
+      <c r="N50" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="O50" s="14">
         <v>6.3520000000000003</v>
+      </c>
+      <c r="P50" s="43">
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="15.6">
@@ -7718,7 +7914,7 @@
         <v>4</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E51" s="2">
         <v>1.4</v>
@@ -7732,7 +7928,7 @@
       <c r="H51" s="8">
         <v>20</v>
       </c>
-      <c r="I51" s="17">
+      <c r="I51" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>0.55999999999999994</v>
       </c>
@@ -7742,7 +7938,7 @@
       <c r="K51" s="8">
         <v>67.599999999999994</v>
       </c>
-      <c r="L51" s="17">
+      <c r="L51" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>-6.0392156862745065E-2</v>
       </c>
@@ -7750,11 +7946,14 @@
         <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>1.1285475792988313</v>
       </c>
-      <c r="N51" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="O51" s="15">
+      <c r="N51" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="O51" s="14">
         <v>6.3520000000000003</v>
+      </c>
+      <c r="P51" s="43">
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="15.6">
@@ -7768,7 +7967,7 @@
         <v>4</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E52" s="4">
         <v>1</v>
@@ -7782,7 +7981,7 @@
       <c r="H52" s="8">
         <v>20</v>
       </c>
-      <c r="I52" s="17">
+      <c r="I52" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>0.6</v>
       </c>
@@ -7792,7 +7991,7 @@
       <c r="K52" s="12">
         <v>75.8</v>
       </c>
-      <c r="L52" s="17">
+      <c r="L52" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>-7.2894550601556946E-2</v>
       </c>
@@ -7800,11 +7999,14 @@
         <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>1.1572519083969466</v>
       </c>
-      <c r="N52" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="O52" s="15">
+      <c r="N52" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="O52" s="14">
         <v>6.24</v>
+      </c>
+      <c r="P52" s="43">
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:18" ht="15.6">
@@ -7818,7 +8020,7 @@
         <v>4</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E53" s="2">
         <v>1.4</v>
@@ -7832,7 +8034,7 @@
       <c r="H53" s="8">
         <v>20</v>
       </c>
-      <c r="I53" s="17">
+      <c r="I53" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>0.84</v>
       </c>
@@ -7842,7 +8044,7 @@
       <c r="K53" s="12">
         <v>85</v>
       </c>
-      <c r="L53" s="17">
+      <c r="L53" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>-0.12211221122112212</v>
       </c>
@@ -7850,11 +8052,14 @@
         <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>1.2781954887218046</v>
       </c>
-      <c r="N53" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="O53" s="15">
+      <c r="N53" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="O53" s="14">
         <v>6.24</v>
+      </c>
+      <c r="P53" s="43">
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="15.6">
@@ -7868,7 +8073,7 @@
         <v>4</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E54" s="2">
         <v>0.6</v>
@@ -7882,7 +8087,7 @@
       <c r="H54" s="8">
         <v>200</v>
       </c>
-      <c r="I54" s="17">
+      <c r="I54" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>0.36</v>
       </c>
@@ -7892,7 +8097,7 @@
       <c r="K54" s="8">
         <v>39.4</v>
       </c>
-      <c r="L54" s="17">
+      <c r="L54" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>-1</v>
       </c>
@@ -7900,11 +8105,14 @@
         <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N54" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="O54" s="15">
+      <c r="N54" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="O54" s="14">
         <v>6.26</v>
+      </c>
+      <c r="P54" s="43">
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="15.6">
@@ -7918,7 +8126,7 @@
         <v>4</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E55" s="4">
         <v>1</v>
@@ -7932,7 +8140,7 @@
       <c r="H55" s="12">
         <v>200</v>
       </c>
-      <c r="I55" s="17">
+      <c r="I55" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>0.6</v>
       </c>
@@ -7942,7 +8150,7 @@
       <c r="K55" s="8">
         <v>63.26</v>
       </c>
-      <c r="L55" s="17">
+      <c r="L55" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>-1.679659246162498E-2</v>
       </c>
@@ -7950,737 +8158,1066 @@
         <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>1.0341670753637404</v>
       </c>
-      <c r="N55" s="26" t="s">
-        <v>33</v>
+      <c r="N55" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="O55" s="13">
         <v>6.26</v>
       </c>
+      <c r="P55" s="43">
+        <v>30</v>
+      </c>
     </row>
     <row r="56" spans="1:18" ht="15.6">
-      <c r="A56" s="23">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="16">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0</v>
+      </c>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="16" t="e">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M56" s="4" t="e">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N56" s="25"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="15.6">
+      <c r="A57" s="22">
         <v>79</v>
       </c>
-      <c r="B56" s="23">
+      <c r="B57" s="22">
         <v>35</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C57" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E56" s="4">
+      <c r="D57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="4">
         <v>1.4</v>
       </c>
-      <c r="F56" s="12">
+      <c r="F57" s="12">
         <v>0.6</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G57" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H56" s="27">
+      <c r="H57" s="26">
         <v>200</v>
       </c>
-      <c r="I56" s="17">
+      <c r="I57" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>0.84</v>
       </c>
-      <c r="J56" s="24">
+      <c r="J57" s="23">
         <f>(62.33+62.15)/2</f>
         <v>62.239999999999995</v>
       </c>
-      <c r="K56" s="24">
+      <c r="K57" s="23">
         <v>65.400000000000006</v>
       </c>
-      <c r="L56" s="17">
+      <c r="L57" s="16">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>-2.4757129426512151E-2</v>
       </c>
-      <c r="M56" s="4">
+      <c r="M57" s="4">
         <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>1.0507712082262213</v>
       </c>
-      <c r="N56" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="O56" s="28">
+      <c r="N57" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="O57" s="27">
         <v>6.26</v>
       </c>
+      <c r="P57" s="43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="15.6">
+      <c r="A58" s="39">
+        <v>79</v>
+      </c>
+      <c r="B58" s="39"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="40">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0</v>
+      </c>
+      <c r="J58" s="41"/>
+      <c r="K58" s="41"/>
+      <c r="L58" s="42" t="e">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M58" s="40" t="e">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N58" s="26"/>
+      <c r="O58" s="27"/>
+      <c r="P58" s="43">
+        <v>30</v>
+      </c>
     </row>
     <row r="59" spans="1:18" ht="15.6">
-      <c r="C59" s="36" t="s">
+      <c r="A59" s="39">
+        <v>79</v>
+      </c>
+      <c r="B59" s="39"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="40">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0</v>
+      </c>
+      <c r="J59" s="41"/>
+      <c r="K59" s="41"/>
+      <c r="L59" s="42" t="e">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M59" s="40" t="e">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N59" s="26"/>
+      <c r="O59" s="27"/>
+      <c r="P59" s="43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="15.6">
+      <c r="A60" s="39"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="40">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0</v>
+      </c>
+      <c r="J60" s="41"/>
+      <c r="K60" s="41"/>
+      <c r="L60" s="42" t="e">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M60" s="40" t="e">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N60" s="26"/>
+      <c r="O60" s="27"/>
+      <c r="P60" s="43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="15.6">
+      <c r="A61" s="39"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="40">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0</v>
+      </c>
+      <c r="J61" s="41"/>
+      <c r="K61" s="41"/>
+      <c r="L61" s="42" t="e">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M61" s="40" t="e">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N61" s="26"/>
+      <c r="O61" s="27"/>
+      <c r="P61" s="43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="15.6">
+      <c r="A62" s="39"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="40">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0</v>
+      </c>
+      <c r="J62" s="41"/>
+      <c r="K62" s="41"/>
+      <c r="L62" s="42" t="e">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M62" s="40" t="e">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N62" s="26"/>
+      <c r="O62" s="27"/>
+      <c r="P62" s="43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="15.6">
+      <c r="A63" s="39"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="40">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0</v>
+      </c>
+      <c r="J63" s="41"/>
+      <c r="K63" s="41"/>
+      <c r="L63" s="42" t="e">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M63" s="40" t="e">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N63" s="26"/>
+      <c r="O63" s="27"/>
+      <c r="P63" s="43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="15.6">
+      <c r="A64" s="39"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="40">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0</v>
+      </c>
+      <c r="J64" s="41"/>
+      <c r="K64" s="41"/>
+      <c r="L64" s="42" t="e">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M64" s="40" t="e">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N64" s="26"/>
+      <c r="O64" s="27"/>
+      <c r="P64" s="43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="15.6">
+      <c r="A65" s="39"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="40">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0</v>
+      </c>
+      <c r="J65" s="41"/>
+      <c r="K65" s="41"/>
+      <c r="L65" s="42" t="e">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M65" s="40" t="e">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N65" s="26"/>
+      <c r="O65" s="27"/>
+      <c r="P65" s="43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="15.6">
+      <c r="A66" s="39"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="40">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="41"/>
+      <c r="K66" s="41"/>
+      <c r="L66" s="42" t="e">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M66" s="40" t="e">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N66" s="26"/>
+      <c r="O66" s="27"/>
+      <c r="P66" s="43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="15.6">
+      <c r="A67" s="39">
+        <v>79</v>
+      </c>
+      <c r="B67" s="39"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="40">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0</v>
+      </c>
+      <c r="J67" s="41"/>
+      <c r="K67" s="41"/>
+      <c r="L67" s="42" t="e">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M67" s="40" t="e">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N67" s="26"/>
+      <c r="O67" s="27"/>
+      <c r="P67" s="43"/>
+    </row>
+    <row r="69" spans="1:16" ht="15.6">
+      <c r="C69" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D69" s="37"/>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" t="s">
+        <v>51</v>
+      </c>
+      <c r="B70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" t="s">
+        <v>57</v>
+      </c>
+      <c r="D70" t="s">
+        <v>58</v>
+      </c>
+      <c r="E70" t="s">
         <v>53</v>
       </c>
-      <c r="D59" s="37"/>
-    </row>
-    <row r="60" spans="1:18">
-      <c r="A60" t="s">
-        <v>52</v>
-      </c>
-      <c r="B60" t="s">
-        <v>57</v>
-      </c>
-      <c r="C60" t="s">
-        <v>58</v>
-      </c>
-      <c r="D60" t="s">
-        <v>59</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="F70" t="s">
         <v>54</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G70" t="s">
         <v>55</v>
       </c>
-      <c r="G60" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18">
-      <c r="A61">
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71">
         <v>77</v>
       </c>
-      <c r="B61">
+      <c r="B71">
         <v>0.36</v>
       </c>
-      <c r="C61">
+      <c r="C71">
         <v>57.5</v>
       </c>
-      <c r="D61">
+      <c r="D71">
         <v>55.2</v>
       </c>
-      <c r="E61" s="33">
+      <c r="E71" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>2.0408163265306097E-2</v>
       </c>
-      <c r="F61" s="33">
+      <c r="F71" s="32">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>0.96000000000000008</v>
       </c>
-      <c r="G61">
+      <c r="G71">
         <v>6.24</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
-      <c r="A62">
+    <row r="72" spans="1:16">
+      <c r="A72">
         <v>77</v>
       </c>
-      <c r="B62">
+      <c r="B72">
         <v>0.6</v>
       </c>
-      <c r="C62">
+      <c r="C72">
         <v>65.5</v>
       </c>
-      <c r="D62">
+      <c r="D72">
         <v>75.8</v>
       </c>
-      <c r="E62" s="33">
+      <c r="E72" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-7.2894550601556946E-2</v>
       </c>
-      <c r="F62" s="33">
+      <c r="F72" s="32">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>1.1572519083969466</v>
       </c>
-      <c r="G62">
+      <c r="G72">
         <v>6.24</v>
       </c>
     </row>
-    <row r="63" spans="1:18" hidden="1">
-      <c r="A63">
+    <row r="73" spans="1:16" hidden="1">
+      <c r="A73">
         <v>76</v>
       </c>
-      <c r="B63">
+      <c r="B73">
         <v>0.24</v>
       </c>
-      <c r="C63">
+      <c r="C73">
         <f>AVERAGE(J43:J44)</f>
         <v>59.945000000000007</v>
       </c>
-      <c r="D63">
+      <c r="D73">
         <f>AVERAGE(K43:K44)</f>
         <v>64.27000000000001</v>
       </c>
-      <c r="E63" s="33">
+      <c r="E73" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-3.4818661192287582E-2</v>
       </c>
-      <c r="F63" s="33">
+      <c r="F73" s="32">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>1.0721494703478189</v>
       </c>
-      <c r="G63">
+      <c r="G73">
         <v>6.3520000000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
-      <c r="A64">
+    <row r="74" spans="1:16">
+      <c r="A74">
         <v>77</v>
       </c>
-      <c r="B64">
+      <c r="B74">
         <v>0.84</v>
       </c>
-      <c r="C64">
+      <c r="C74">
         <v>66.5</v>
       </c>
-      <c r="D64">
+      <c r="D74">
         <v>85</v>
       </c>
-      <c r="E64" s="33">
+      <c r="E74" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-0.12211221122112212</v>
       </c>
-      <c r="F64" s="33">
+      <c r="F74" s="32">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>1.2781954887218046</v>
       </c>
-      <c r="G64">
+      <c r="G74">
         <v>6.24</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
-      <c r="A65">
+    <row r="75" spans="1:16">
+      <c r="A75">
         <v>78</v>
       </c>
-      <c r="B65">
+      <c r="B75">
         <v>0.36</v>
       </c>
-      <c r="C65">
+      <c r="C75">
         <v>62.95</v>
       </c>
-      <c r="D65">
+      <c r="D75">
         <v>59.94</v>
       </c>
-      <c r="E65" s="33">
+      <c r="E75" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>2.4493449426316261E-2</v>
       </c>
-      <c r="F65" s="33">
+      <c r="F75" s="32">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>0.95218427323272425</v>
       </c>
-      <c r="G65">
+      <c r="G75">
         <v>6.33</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
-      <c r="A66">
+    <row r="76" spans="1:16">
+      <c r="A76">
         <v>78</v>
       </c>
-      <c r="B66">
+      <c r="B76">
         <v>0.6</v>
       </c>
-      <c r="C66">
+      <c r="C76">
         <v>71.150000000000006</v>
       </c>
-      <c r="D66">
+      <c r="D76">
         <v>76.97999999999999</v>
       </c>
-      <c r="E66" s="33">
+      <c r="E76" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-3.9357321271855698E-2</v>
       </c>
-      <c r="F66" s="33">
+      <c r="F76" s="32">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>1.0819395643007728</v>
       </c>
-      <c r="G66">
+      <c r="G76">
         <v>6.33</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
-      <c r="A67">
+    <row r="77" spans="1:16">
+      <c r="A77">
         <v>78</v>
       </c>
-      <c r="B67">
+      <c r="B77">
         <v>0.84</v>
       </c>
-      <c r="C67">
+      <c r="C77">
         <v>70.040000000000006</v>
       </c>
-      <c r="D67">
+      <c r="D77">
         <v>79.540000000000006</v>
       </c>
-      <c r="E67" s="33">
+      <c r="E77" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-6.3511164594197075E-2</v>
       </c>
-      <c r="F67" s="33">
+      <c r="F77" s="32">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>1.1356367789834381</v>
       </c>
-      <c r="G67">
+      <c r="G77">
         <v>6.33</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1">
-      <c r="A68">
+    <row r="78" spans="1:16" hidden="1">
+      <c r="A78">
         <v>76</v>
       </c>
-      <c r="B68">
+      <c r="B78">
         <v>0.4</v>
       </c>
-      <c r="C68">
+      <c r="C78">
         <f>AVERAGE(J49:J50)</f>
         <v>58.1</v>
       </c>
-      <c r="D68">
+      <c r="D78">
         <f>AVERAGE(K49:K50)</f>
         <v>66.784999999999997</v>
       </c>
-      <c r="E68" s="33">
+      <c r="E78" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-6.9543980462025035E-2</v>
       </c>
-      <c r="F68" s="33">
+      <c r="F78" s="32">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>1.1494836488812392</v>
       </c>
-      <c r="G68">
+      <c r="G78">
         <v>6.3520000000000003</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
-      <c r="A69">
+    <row r="79" spans="1:16">
+      <c r="A79">
         <v>79</v>
       </c>
-      <c r="B69">
+      <c r="B79">
         <v>0.6</v>
       </c>
-      <c r="C69">
+      <c r="C79">
         <v>61.17</v>
       </c>
-      <c r="D69">
+      <c r="D79">
         <v>63.26</v>
       </c>
-      <c r="E69" s="33">
+      <c r="E79" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-1.679659246162498E-2</v>
       </c>
-      <c r="F69" s="33">
+      <c r="F79" s="32">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>1.0341670753637404</v>
       </c>
-      <c r="G69">
+      <c r="G79">
         <v>6.26</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1">
-      <c r="A70">
+    <row r="80" spans="1:16" hidden="1">
+      <c r="A80">
         <v>76</v>
       </c>
-      <c r="B70">
+      <c r="B80">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C70">
+      <c r="C80">
         <f>AVERAGE(J53:J54)</f>
         <v>33.25</v>
       </c>
-      <c r="D70">
+      <c r="D80">
         <f>AVERAGE(K53:K54)</f>
         <v>62.2</v>
       </c>
-      <c r="E70" s="33">
+      <c r="E80" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-0.30330015715034053</v>
       </c>
-      <c r="F70" s="33">
+      <c r="F80" s="32">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>1.8706766917293234</v>
       </c>
-      <c r="G70">
+      <c r="G80">
         <v>6.3520000000000003</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
-      <c r="A71">
+    <row r="81" spans="1:9">
+      <c r="A81">
         <v>79</v>
       </c>
-      <c r="B71">
+      <c r="B81">
         <v>0.84</v>
       </c>
-      <c r="C71">
+      <c r="C81">
         <v>62.239999999999995</v>
       </c>
-      <c r="D71">
+      <c r="D81">
         <v>65.400000000000006</v>
       </c>
-      <c r="E71" s="33">
+      <c r="E81" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-2.4757129426512151E-2</v>
       </c>
-      <c r="F71" s="33">
+      <c r="F81" s="32">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>1.0507712082262213</v>
       </c>
-      <c r="G71">
+      <c r="G81">
         <v>6.26</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
-      <c r="A72">
+    <row r="82" spans="1:9">
+      <c r="A82">
         <v>79</v>
       </c>
-      <c r="B72">
+      <c r="B82">
         <v>0.36</v>
       </c>
-      <c r="C72">
+      <c r="C82">
         <v>0</v>
       </c>
-      <c r="D72">
+      <c r="D82">
         <v>39.4</v>
       </c>
-      <c r="E72" s="33">
+      <c r="E82" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-1</v>
       </c>
-      <c r="F72" s="33" t="e">
+      <c r="F82" s="32" t="e">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G72">
+      <c r="G82">
         <v>6.26</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
-      <c r="D75" s="22"/>
-      <c r="E75" s="22" t="s">
+    <row r="85" spans="1:9">
+      <c r="D85" s="21"/>
+      <c r="E85" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F85" s="21"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="D86" s="21">
+        <v>77</v>
+      </c>
+      <c r="E86" s="21">
+        <v>0.66290000000000004</v>
+      </c>
+      <c r="F86" s="21"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="D87" s="21">
+        <v>78</v>
+      </c>
+      <c r="E87" s="21">
+        <v>0.38219999999999998</v>
+      </c>
+      <c r="F87" s="21"/>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="D88" s="21">
+        <v>79</v>
+      </c>
+      <c r="E88" s="21">
+        <v>6.9199999999999998E-2</v>
+      </c>
+      <c r="F88" s="21"/>
+      <c r="I88" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="C89" t="s">
         <v>60</v>
       </c>
-      <c r="F75" s="22"/>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="D76" s="22">
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>51</v>
+      </c>
+      <c r="B90" t="s">
+        <v>56</v>
+      </c>
+      <c r="C90" t="s">
+        <v>57</v>
+      </c>
+      <c r="D90" t="s">
+        <v>58</v>
+      </c>
+      <c r="E90" t="s">
+        <v>53</v>
+      </c>
+      <c r="F90" t="s">
+        <v>54</v>
+      </c>
+      <c r="G90" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91">
         <v>77</v>
       </c>
-      <c r="E76" s="22">
-        <v>0.66290000000000004</v>
-      </c>
-      <c r="F76" s="22"/>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="D77" s="22">
+      <c r="B91">
+        <v>0.36</v>
+      </c>
+      <c r="C91">
+        <v>57.5</v>
+      </c>
+      <c r="D91">
+        <v>55.2</v>
+      </c>
+      <c r="E91">
+        <v>2.0408163265306097E-2</v>
+      </c>
+      <c r="F91">
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="G91">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92">
+        <v>77</v>
+      </c>
+      <c r="B92">
+        <v>0.6</v>
+      </c>
+      <c r="C92">
+        <v>65.5</v>
+      </c>
+      <c r="D92">
+        <v>75.8</v>
+      </c>
+      <c r="E92">
+        <v>-7.2894550601556946E-2</v>
+      </c>
+      <c r="F92">
+        <v>1.1572519083969466</v>
+      </c>
+      <c r="G92">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93">
+        <v>76</v>
+      </c>
+      <c r="B93">
+        <v>0.24</v>
+      </c>
+      <c r="C93">
+        <v>55.9</v>
+      </c>
+      <c r="D93">
+        <v>64.984999999999999</v>
+      </c>
+      <c r="E93">
+        <v>-7.515407205195021E-2</v>
+      </c>
+      <c r="F93">
+        <v>1.1625223613595708</v>
+      </c>
+      <c r="G93">
+        <v>6.3520000000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94">
+        <v>77</v>
+      </c>
+      <c r="B94">
+        <v>0.84</v>
+      </c>
+      <c r="C94">
+        <v>66.5</v>
+      </c>
+      <c r="D94">
+        <v>85</v>
+      </c>
+      <c r="E94">
+        <v>-0.12211221122112212</v>
+      </c>
+      <c r="F94">
+        <v>1.2781954887218046</v>
+      </c>
+      <c r="G94">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95">
         <v>78</v>
       </c>
-      <c r="E77" s="22">
-        <v>0.38219999999999998</v>
-      </c>
-      <c r="F77" s="22"/>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="D78" s="22">
+      <c r="B95">
+        <v>0.36</v>
+      </c>
+      <c r="C95">
+        <v>62.95</v>
+      </c>
+      <c r="D95">
+        <v>59.94</v>
+      </c>
+      <c r="E95">
+        <v>2.4493449426316261E-2</v>
+      </c>
+      <c r="F95">
+        <v>0.95218427323272425</v>
+      </c>
+      <c r="G95">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96">
+        <v>78</v>
+      </c>
+      <c r="B96">
+        <v>0.6</v>
+      </c>
+      <c r="C96">
+        <v>71.150000000000006</v>
+      </c>
+      <c r="D96">
+        <v>76.97999999999999</v>
+      </c>
+      <c r="E96">
+        <v>-3.9357321271855698E-2</v>
+      </c>
+      <c r="F96">
+        <v>1.0819395643007728</v>
+      </c>
+      <c r="G96">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>78</v>
+      </c>
+      <c r="B97">
+        <v>0.84</v>
+      </c>
+      <c r="C97">
+        <v>70.040000000000006</v>
+      </c>
+      <c r="D97">
+        <v>79.540000000000006</v>
+      </c>
+      <c r="E97">
+        <v>-6.3511164594197075E-2</v>
+      </c>
+      <c r="F97">
+        <v>1.1356367789834381</v>
+      </c>
+      <c r="G97">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>76</v>
+      </c>
+      <c r="B98">
+        <v>0.4</v>
+      </c>
+      <c r="C98">
+        <v>66</v>
+      </c>
+      <c r="D98">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="E98">
+        <v>-9.8360655737704958E-2</v>
+      </c>
+      <c r="F98">
+        <v>1.2181818181818183</v>
+      </c>
+      <c r="G98">
+        <v>6.3520000000000003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
         <v>79</v>
       </c>
-      <c r="E78" s="22">
-        <v>6.9199999999999998E-2</v>
-      </c>
-      <c r="F78" s="22"/>
-      <c r="I78" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="C79" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" t="s">
-        <v>52</v>
-      </c>
-      <c r="B80" t="s">
-        <v>57</v>
-      </c>
-      <c r="C80" t="s">
-        <v>58</v>
-      </c>
-      <c r="D80" t="s">
-        <v>59</v>
-      </c>
-      <c r="E80" t="s">
-        <v>54</v>
-      </c>
-      <c r="F80" t="s">
-        <v>55</v>
-      </c>
-      <c r="G80" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81">
-        <v>77</v>
-      </c>
-      <c r="B81">
+      <c r="B99">
+        <v>0.6</v>
+      </c>
+      <c r="C99">
+        <v>61.17</v>
+      </c>
+      <c r="D99">
+        <v>63.26</v>
+      </c>
+      <c r="E99">
+        <v>-1.679659246162498E-2</v>
+      </c>
+      <c r="F99">
+        <v>1.0341670753637404</v>
+      </c>
+      <c r="G99">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>76</v>
+      </c>
+      <c r="B100">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C100">
+        <v>35.020000000000003</v>
+      </c>
+      <c r="D100">
+        <v>59.47</v>
+      </c>
+      <c r="E100">
+        <v>-0.25875754048047406</v>
+      </c>
+      <c r="F100">
+        <v>1.6981724728726439</v>
+      </c>
+      <c r="G100">
+        <v>6.3520000000000003</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>79</v>
+      </c>
+      <c r="B101">
+        <v>0.84</v>
+      </c>
+      <c r="C101">
+        <v>62.239999999999995</v>
+      </c>
+      <c r="D101">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="E101">
+        <v>-2.4757129426512151E-2</v>
+      </c>
+      <c r="F101">
+        <v>1.0507712082262213</v>
+      </c>
+      <c r="G101">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <v>79</v>
+      </c>
+      <c r="B102">
         <v>0.36</v>
       </c>
-      <c r="C81">
-        <v>57.5</v>
-      </c>
-      <c r="D81">
-        <v>55.2</v>
-      </c>
-      <c r="E81">
-        <v>2.0408163265306097E-2</v>
-      </c>
-      <c r="F81">
-        <v>0.96000000000000008</v>
-      </c>
-      <c r="G81">
-        <v>6.24</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82">
-        <v>77</v>
-      </c>
-      <c r="B82">
-        <v>0.6</v>
-      </c>
-      <c r="C82">
-        <v>65.5</v>
-      </c>
-      <c r="D82">
-        <v>75.8</v>
-      </c>
-      <c r="E82">
-        <v>-7.2894550601556946E-2</v>
-      </c>
-      <c r="F82">
-        <v>1.1572519083969466</v>
-      </c>
-      <c r="G82">
-        <v>6.24</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83">
-        <v>76</v>
-      </c>
-      <c r="B83">
-        <v>0.24</v>
-      </c>
-      <c r="C83">
-        <v>55.9</v>
-      </c>
-      <c r="D83">
-        <v>64.984999999999999</v>
-      </c>
-      <c r="E83">
-        <v>-7.515407205195021E-2</v>
-      </c>
-      <c r="F83">
-        <v>1.1625223613595708</v>
-      </c>
-      <c r="G83">
-        <v>6.3520000000000003</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84">
-        <v>77</v>
-      </c>
-      <c r="B84">
-        <v>0.84</v>
-      </c>
-      <c r="C84">
-        <v>66.5</v>
-      </c>
-      <c r="D84">
-        <v>85</v>
-      </c>
-      <c r="E84">
-        <v>-0.12211221122112212</v>
-      </c>
-      <c r="F84">
-        <v>1.2781954887218046</v>
-      </c>
-      <c r="G84">
-        <v>6.24</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85">
-        <v>78</v>
-      </c>
-      <c r="B85">
-        <v>0.36</v>
-      </c>
-      <c r="C85">
-        <v>62.95</v>
-      </c>
-      <c r="D85">
-        <v>59.94</v>
-      </c>
-      <c r="E85">
-        <v>2.4493449426316261E-2</v>
-      </c>
-      <c r="F85">
-        <v>0.95218427323272425</v>
-      </c>
-      <c r="G85">
-        <v>6.33</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86">
-        <v>78</v>
-      </c>
-      <c r="B86">
-        <v>0.6</v>
-      </c>
-      <c r="C86">
-        <v>71.150000000000006</v>
-      </c>
-      <c r="D86">
-        <v>76.97999999999999</v>
-      </c>
-      <c r="E86">
-        <v>-3.9357321271855698E-2</v>
-      </c>
-      <c r="F86">
-        <v>1.0819395643007728</v>
-      </c>
-      <c r="G86">
-        <v>6.33</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87">
-        <v>78</v>
-      </c>
-      <c r="B87">
-        <v>0.84</v>
-      </c>
-      <c r="C87">
-        <v>70.040000000000006</v>
-      </c>
-      <c r="D87">
-        <v>79.540000000000006</v>
-      </c>
-      <c r="E87">
-        <v>-6.3511164594197075E-2</v>
-      </c>
-      <c r="F87">
-        <v>1.1356367789834381</v>
-      </c>
-      <c r="G87">
-        <v>6.33</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88">
-        <v>76</v>
-      </c>
-      <c r="B88">
-        <v>0.4</v>
-      </c>
-      <c r="C88">
-        <v>66</v>
-      </c>
-      <c r="D88">
-        <v>80.400000000000006</v>
-      </c>
-      <c r="E88">
-        <v>-9.8360655737704958E-2</v>
-      </c>
-      <c r="F88">
-        <v>1.2181818181818183</v>
-      </c>
-      <c r="G88">
-        <v>6.3520000000000003</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89">
-        <v>79</v>
-      </c>
-      <c r="B89">
-        <v>0.6</v>
-      </c>
-      <c r="C89">
-        <v>61.17</v>
-      </c>
-      <c r="D89">
-        <v>63.26</v>
-      </c>
-      <c r="E89">
-        <v>-1.679659246162498E-2</v>
-      </c>
-      <c r="F89">
-        <v>1.0341670753637404</v>
-      </c>
-      <c r="G89">
-        <v>6.26</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90">
-        <v>76</v>
-      </c>
-      <c r="B90">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="C90">
-        <v>35.020000000000003</v>
-      </c>
-      <c r="D90">
-        <v>59.47</v>
-      </c>
-      <c r="E90">
-        <v>-0.25875754048047406</v>
-      </c>
-      <c r="F90">
-        <v>1.6981724728726439</v>
-      </c>
-      <c r="G90">
-        <v>6.3520000000000003</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91">
-        <v>79</v>
-      </c>
-      <c r="B91">
-        <v>0.84</v>
-      </c>
-      <c r="C91">
-        <v>62.239999999999995</v>
-      </c>
-      <c r="D91">
-        <v>65.400000000000006</v>
-      </c>
-      <c r="E91">
-        <v>-2.4757129426512151E-2</v>
-      </c>
-      <c r="F91">
-        <v>1.0507712082262213</v>
-      </c>
-      <c r="G91">
-        <v>6.26</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92">
-        <v>79</v>
-      </c>
-      <c r="B92">
-        <v>0.36</v>
-      </c>
-      <c r="C92">
+      <c r="C102">
         <v>0</v>
       </c>
-      <c r="D92">
+      <c r="D102">
         <v>39.4</v>
       </c>
-      <c r="E92">
+      <c r="E102">
         <v>-1</v>
       </c>
-      <c r="F92" t="e">
+      <c r="F102" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="G92">
+      <c r="G102">
         <v>6.26</v>
       </c>
     </row>
@@ -8688,7 +9225,7 @@
   <mergeCells count="3">
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="Q35:W35"/>
-    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C69:D69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8704,25 +9241,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6">
-      <c r="A1" s="39" t="s">
-        <v>62</v>
+      <c r="A1" s="35" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
@@ -8736,7 +9273,9 @@
       <c r="K4" s="38"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="38"/>
+      <c r="A5" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>

--- a/Synthèse-Experiences/Hole_Size_Dosev2.xlsx
+++ b/Synthèse-Experiences/Hole_Size_Dosev2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="70">
   <si>
     <t>backside</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>Loop</t>
-  </si>
-  <si>
-    <t>Final dose</t>
   </si>
   <si>
     <t>Thickness</t>
@@ -276,7 +273,16 @@
     </r>
   </si>
   <si>
-    <t>Thickness nm</t>
+    <t>Raith</t>
+  </si>
+  <si>
+    <t>Final dose pC</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t>Mesure with SEM have been taken on two different days, and we observe a ~8nm difference for hole size between them. For one day all holes appear smaller. Is it a real change or due to settings ? We will only compare measures taken on the same day.</t>
   </si>
 </sst>
 </file>
@@ -376,7 +382,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,14 +419,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -567,24 +567,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -671,15 +658,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -692,77 +670,29 @@
     <xf numFmtId="2" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="38">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -2174,11 +2104,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208127488"/>
-        <c:axId val="208129024"/>
+        <c:axId val="199890432"/>
+        <c:axId val="199891968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208127488"/>
+        <c:axId val="199890432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2188,12 +2118,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208129024"/>
+        <c:crossAx val="199891968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208129024"/>
+        <c:axId val="199891968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2204,7 +2134,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208127488"/>
+        <c:crossAx val="199890432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2412,11 +2342,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209417728"/>
-        <c:axId val="209419264"/>
+        <c:axId val="199755264"/>
+        <c:axId val="199756800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209417728"/>
+        <c:axId val="199755264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2"/>
@@ -2427,12 +2357,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209419264"/>
+        <c:crossAx val="199756800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209419264"/>
+        <c:axId val="199756800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2443,7 +2373,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209417728"/>
+        <c:crossAx val="199755264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2516,7 +2446,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil2!$B$71:$B$74</c:f>
+              <c:f>Feuil2!$B$93:$B$96</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2534,7 +2464,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil2!$F$71:$F$74</c:f>
+              <c:f>Feuil2!$F$93:$F$96</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2588,7 +2518,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil2!$B$71:$B$74</c:f>
+              <c:f>Feuil2!$B$93:$B$96</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2606,7 +2536,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil2!$F$75:$F$77</c:f>
+              <c:f>Feuil2!$F$97:$F$99</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2660,7 +2590,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil2!$B$71:$B$74</c:f>
+              <c:f>Feuil2!$B$93:$B$96</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2678,7 +2608,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil2!$F$79:$F$81</c:f>
+              <c:f>Feuil2!$F$101:$F$103</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2701,11 +2631,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209325056"/>
-        <c:axId val="209331328"/>
+        <c:axId val="199793664"/>
+        <c:axId val="199795840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209325056"/>
+        <c:axId val="199793664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2734,12 +2664,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209331328"/>
+        <c:crossAx val="199795840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209331328"/>
+        <c:axId val="199795840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2776,7 +2706,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209325056"/>
+        <c:crossAx val="199793664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3015,10 +2945,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil2!$I$54:$I$57</c:f>
+              <c:f>Feuil2!$I$54:$I$56</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.36</c:v>
                 </c:pt>
@@ -3026,9 +2956,6 @@
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>0.84</c:v>
                 </c:pt>
               </c:numCache>
@@ -3036,17 +2963,17 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil2!$K$54:$K$57</c:f>
+              <c:f>Feuil2!$K$54:$K$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>39.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>63.26</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>65.400000000000006</c:v>
                 </c:pt>
               </c:numCache>
@@ -3062,11 +2989,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209719296"/>
-        <c:axId val="209721216"/>
+        <c:axId val="199843840"/>
+        <c:axId val="199845760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209719296"/>
+        <c:axId val="199843840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3095,12 +3022,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209721216"/>
+        <c:crossAx val="199845760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209721216"/>
+        <c:axId val="199845760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -3132,7 +3059,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209719296"/>
+        <c:crossAx val="199843840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3218,13 +3145,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>643377</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>195943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>132836</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>48090</xdr:rowOff>
@@ -3248,13 +3175,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>81770</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>32657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>130436</xdr:rowOff>
@@ -3278,14 +3205,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>731933</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>98611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>577190</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>450917</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>84523</xdr:rowOff>
     </xdr:to>
@@ -3335,13 +3262,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>726141</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>80682</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>681318</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>116541</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3365,14 +3292,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>735103</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>80681</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>53333</xdr:rowOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>53334</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3420,13 +3347,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>303521</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>180576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>93490</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>24334</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3450,14 +3377,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>261257</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>130629</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>147665</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>174172</xdr:rowOff>
+      <xdr:colOff>147666</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>174171</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3505,8 +3432,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A2:P67" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36" totalsRowBorderDxfId="35">
-  <autoFilter ref="A2:P67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A2:O89" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
+  <autoFilter ref="A2:O89">
     <filterColumn colId="3">
       <filters>
         <filter val="ApproxGauss-Auto"/>
@@ -3517,37 +3444,36 @@
   <sortState ref="A44:O51">
     <sortCondition ref="I2:I56"/>
   </sortState>
-  <tableColumns count="16">
-    <tableColumn id="1" name="Exp" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="19" name="Thickness" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="3" name="Image Type" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="5" name="Measure with*" dataDxfId="28" totalsRowDxfId="27"/>
-    <tableColumn id="6" name="dose on design" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="15" name="Design Dose factor" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="17" name="Dot Dose pC" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="18" name="Loop" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="16" name="Final dose" dataDxfId="18" totalsRowDxfId="17">
+  <tableColumns count="15">
+    <tableColumn id="1" name="Exp" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="19" name="Thickness" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="3" name="Image Type" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="5" name="Measure with*" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="6" name="dose on design" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="15" name="Design Dose factor" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="17" name="Dot Dose pC" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="18" name="Loop" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="16" name="Final dose pC" dataDxfId="16" totalsRowDxfId="15">
       <calculatedColumnFormula>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Frontside - direct" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="8" name="Backside - transmission" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="11" name="Ecart relatif" dataDxfId="12" totalsRowDxfId="11">
+    <tableColumn id="7" name="Frontside - direct" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="8" name="Backside - transmission" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="11" name="Ecart relatif" dataDxfId="10" totalsRowDxfId="9">
       <calculatedColumnFormula>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Hole Ratio" dataDxfId="10" totalsRowDxfId="9">
+    <tableColumn id="12" name="Hole Ratio" dataDxfId="8" totalsRowDxfId="7">
       <calculatedColumnFormula>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Column" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="14" name="i pA" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="2" name="Thickness nm" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="13" name="Column" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="14" name="i pA" dataDxfId="4" totalsRowDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A70:G82" totalsRowShown="0">
-  <autoFilter ref="A70:G82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A92:G104" totalsRowShown="0">
+  <autoFilter ref="A92:G104">
     <filterColumn colId="0">
       <filters>
         <filter val="77"/>
@@ -3562,14 +3488,14 @@
   <tableColumns count="7">
     <tableColumn id="1" name="Exp "/>
     <tableColumn id="16" name="Final Dose"/>
-    <tableColumn id="2" name="Back?" dataDxfId="4">
+    <tableColumn id="2" name="Back?" dataDxfId="2">
       <calculatedColumnFormula>AVERAGE(J42:J43)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="Front?"/>
-    <tableColumn id="4" name="Relative Difference" dataDxfId="3">
+    <tableColumn id="4" name="Relative Difference" dataDxfId="1">
       <calculatedColumnFormula>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Ratio" dataDxfId="2">
+    <tableColumn id="5" name="Ratio" dataDxfId="0">
       <calculatedColumnFormula>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="Current"/>
@@ -3885,10 +3811,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.6">
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="37"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:16" ht="16.2" thickBot="1">
       <c r="A2" s="5" t="s">
@@ -4971,24 +4897,24 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>36</v>
+      </c>
+      <c r="I47" t="s">
         <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>37</v>
-      </c>
-      <c r="I47" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H48" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J48" s="29">
         <v>1</v>
@@ -5008,16 +4934,16 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" t="s">
         <v>38</v>
       </c>
-      <c r="B49" t="s">
+      <c r="D49" t="s">
         <v>39</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>40</v>
-      </c>
-      <c r="E49" t="s">
-        <v>41</v>
       </c>
       <c r="H49" s="30">
         <v>5</v>
@@ -5043,7 +4969,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H50" s="30">
         <v>8</v>
@@ -5092,7 +5018,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B52" s="29">
         <v>1</v>
@@ -5151,7 +5077,7 @@
         <v>56.2</v>
       </c>
       <c r="I53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J53" s="32">
         <f>VAR(J49:J52)</f>
@@ -5194,7 +5120,7 @@
         <v>60.4</v>
       </c>
       <c r="I54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J54" s="32">
         <f>AVERAGE(J49:J52)</f>
@@ -5279,7 +5205,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B58">
         <f>VAR(B53:F57)</f>
@@ -5288,14 +5214,14 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B59">
         <f>AVERAGE(B53:F57)</f>
         <v>63.547999999999995</v>
       </c>
       <c r="I59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -5310,13 +5236,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W102"/>
+  <dimension ref="A1:V124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q65" sqref="Q65"/>
+      <selection pane="bottomRight" activeCell="K86" sqref="K86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -5324,7 +5250,7 @@
     <col min="1" max="1" width="11.21875" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" customWidth="1"/>
     <col min="5" max="5" width="12.21875" customWidth="1"/>
     <col min="6" max="8" width="11.21875" customWidth="1"/>
     <col min="9" max="9" width="13.77734375" customWidth="1"/>
@@ -5338,21 +5264,21 @@
     <col min="17" max="18" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.6">
-      <c r="J1" s="36" t="s">
+    <row r="1" spans="1:15" ht="15.6">
+      <c r="J1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="37"/>
+      <c r="K1" s="41"/>
       <c r="L1" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="16.2" thickBot="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="16.2" thickBot="1">
       <c r="A2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>10</v>
@@ -5364,40 +5290,37 @@
         <v>12</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="L2" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="P2" s="44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="16.2" hidden="1" thickTop="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="16.2" hidden="1" thickTop="1">
       <c r="A3" s="1">
         <v>31</v>
       </c>
@@ -5441,14 +5364,13 @@
         <v>0</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O3" s="11">
         <v>0.68200000000000005</v>
       </c>
-      <c r="P3" s="43"/>
-    </row>
-    <row r="4" spans="1:16" ht="16.2" hidden="1" thickTop="1">
+    </row>
+    <row r="4" spans="1:15" ht="16.2" hidden="1" thickTop="1">
       <c r="A4" s="1">
         <v>31</v>
       </c>
@@ -5492,14 +5414,13 @@
         <v>0</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O4" s="11">
         <v>0.68200000000000005</v>
       </c>
-      <c r="P4" s="43"/>
-    </row>
-    <row r="5" spans="1:16" ht="16.2" hidden="1" thickTop="1">
+    </row>
+    <row r="5" spans="1:15" ht="16.2" hidden="1" thickTop="1">
       <c r="A5" s="1">
         <v>31</v>
       </c>
@@ -5543,14 +5464,13 @@
         <v>0</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O5" s="11">
         <v>0.68200000000000005</v>
       </c>
-      <c r="P5" s="43"/>
-    </row>
-    <row r="6" spans="1:16" ht="16.2" hidden="1" thickTop="1">
+    </row>
+    <row r="6" spans="1:15" ht="16.2" hidden="1" thickTop="1">
       <c r="A6" s="1">
         <v>32</v>
       </c>
@@ -5594,14 +5514,13 @@
         <v>0</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O6" s="14">
         <v>0.59699999999999998</v>
       </c>
-      <c r="P6" s="43"/>
-    </row>
-    <row r="7" spans="1:16" ht="16.2" hidden="1" thickTop="1">
+    </row>
+    <row r="7" spans="1:15" ht="16.2" hidden="1" thickTop="1">
       <c r="A7" s="1">
         <v>32</v>
       </c>
@@ -5645,14 +5564,13 @@
         <v>0</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O7" s="14">
         <v>0.59699999999999998</v>
       </c>
-      <c r="P7" s="43"/>
-    </row>
-    <row r="8" spans="1:16" ht="16.2" hidden="1" thickTop="1">
+    </row>
+    <row r="8" spans="1:15" ht="16.2" hidden="1" thickTop="1">
       <c r="A8" s="1">
         <v>32</v>
       </c>
@@ -5696,14 +5614,13 @@
         <v>0</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O8" s="14">
         <v>0.59699999999999998</v>
       </c>
-      <c r="P8" s="43"/>
-    </row>
-    <row r="9" spans="1:16" ht="16.2" hidden="1" thickTop="1">
+    </row>
+    <row r="9" spans="1:15" ht="16.2" hidden="1" thickTop="1">
       <c r="A9" s="1">
         <v>32</v>
       </c>
@@ -5747,14 +5664,13 @@
         <v>0</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="14">
         <v>0.59699999999999998</v>
       </c>
-      <c r="P9" s="43"/>
-    </row>
-    <row r="10" spans="1:16" ht="16.2" hidden="1" thickTop="1">
+    </row>
+    <row r="10" spans="1:15" ht="16.2" hidden="1" thickTop="1">
       <c r="A10" s="1">
         <v>32</v>
       </c>
@@ -5798,14 +5714,13 @@
         <v>0</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O10" s="14">
         <v>0.59699999999999998</v>
       </c>
-      <c r="P10" s="43"/>
-    </row>
-    <row r="11" spans="1:16" ht="16.2" hidden="1" thickTop="1">
+    </row>
+    <row r="11" spans="1:15" ht="16.2" hidden="1" thickTop="1">
       <c r="A11" s="1">
         <v>31</v>
       </c>
@@ -5849,14 +5764,13 @@
         <v>0.38</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O11" s="11">
         <v>0.68200000000000005</v>
       </c>
-      <c r="P11" s="43"/>
-    </row>
-    <row r="12" spans="1:16" ht="16.2" hidden="1" thickTop="1">
+    </row>
+    <row r="12" spans="1:15" ht="16.2" hidden="1" thickTop="1">
       <c r="A12" s="1">
         <v>31</v>
       </c>
@@ -5900,14 +5814,13 @@
         <v>0.5</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O12" s="11">
         <v>0.68200000000000005</v>
       </c>
-      <c r="P12" s="43"/>
-    </row>
-    <row r="13" spans="1:16" ht="16.2" hidden="1" thickTop="1">
+    </row>
+    <row r="13" spans="1:15" ht="16.2" hidden="1" thickTop="1">
       <c r="A13" s="3">
         <v>33</v>
       </c>
@@ -5951,14 +5864,13 @@
         <v>0.55706521739130443</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O13" s="14">
         <v>0.45800000000000002</v>
       </c>
-      <c r="P13" s="43"/>
-    </row>
-    <row r="14" spans="1:16" ht="16.2" thickTop="1">
+    </row>
+    <row r="14" spans="1:15" ht="16.2" thickTop="1">
       <c r="A14" s="3">
         <v>33</v>
       </c>
@@ -5969,7 +5881,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2">
         <v>1.2</v>
@@ -6002,16 +5914,13 @@
         <v>0.52731591448931114</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O14" s="13">
         <v>0.45800000000000002</v>
       </c>
-      <c r="P14" s="43">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="15.6">
+    </row>
+    <row r="15" spans="1:15" ht="15.6">
       <c r="A15" s="3">
         <v>33</v>
       </c>
@@ -6022,7 +5931,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="2">
         <v>1.2</v>
@@ -6053,16 +5962,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O15" s="13">
         <v>0.45800000000000002</v>
       </c>
-      <c r="P15" s="43">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="15.6" hidden="1">
+    </row>
+    <row r="16" spans="1:15" ht="15.6" hidden="1">
       <c r="A16" s="3">
         <v>33</v>
       </c>
@@ -6106,14 +6012,13 @@
         <v>0.62593516209476308</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O16" s="13">
         <v>0.45800000000000002</v>
       </c>
-      <c r="P16" s="43"/>
-    </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1">
+    </row>
+    <row r="17" spans="1:16" ht="15" customHeight="1">
       <c r="A17" s="1">
         <v>33</v>
       </c>
@@ -6124,7 +6029,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2">
         <v>1.4</v>
@@ -6157,16 +6062,13 @@
         <v>0.53473684210526318</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O17" s="13">
         <v>0.45800000000000002</v>
       </c>
-      <c r="P17" s="43">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="15.6" hidden="1">
+    </row>
+    <row r="18" spans="1:16" ht="15.6" hidden="1">
       <c r="A18" s="1">
         <v>33</v>
       </c>
@@ -6210,17 +6112,16 @@
         <v>0.60332871012482669</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O18" s="13">
         <v>0.45800000000000002</v>
       </c>
-      <c r="P18" s="43"/>
-      <c r="Q18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="15.6" hidden="1">
+      <c r="P18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15.6" hidden="1">
       <c r="A19" s="1">
         <v>34</v>
       </c>
@@ -6264,14 +6165,13 @@
         <v>0.75358166189111753</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O19" s="14">
         <v>0.52600000000000002</v>
       </c>
-      <c r="P19" s="43"/>
-    </row>
-    <row r="20" spans="1:17" ht="15.6">
+    </row>
+    <row r="20" spans="1:16" ht="15.6">
       <c r="A20" s="1">
         <v>34</v>
       </c>
@@ -6282,7 +6182,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" s="2">
         <v>1.2</v>
@@ -6315,16 +6215,13 @@
         <v>0.65671641791044766</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O20" s="14">
         <v>0.52600000000000002</v>
       </c>
-      <c r="P20" s="43">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="15.6">
+    </row>
+    <row r="21" spans="1:16" ht="15.6">
       <c r="A21" s="1">
         <v>33</v>
       </c>
@@ -6335,7 +6232,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="2">
         <v>1.4</v>
@@ -6366,16 +6263,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O21" s="14">
         <v>0.45800000000000002</v>
       </c>
-      <c r="P21" s="43">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="15.6">
+    </row>
+    <row r="22" spans="1:16" ht="15.6">
       <c r="A22" s="1">
         <v>33</v>
       </c>
@@ -6386,7 +6280,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22" s="2">
         <v>1.6</v>
@@ -6419,16 +6313,13 @@
         <v>0.56581532416502955</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O22" s="14">
         <v>0.45800000000000002</v>
       </c>
-      <c r="P22" s="43">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="15.6" hidden="1">
+    </row>
+    <row r="23" spans="1:16" ht="15.6" hidden="1">
       <c r="A23" s="1">
         <v>34</v>
       </c>
@@ -6472,14 +6363,13 @@
         <v>0.77468354430379749</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O23" s="14">
         <v>0.52600000000000002</v>
       </c>
-      <c r="P23" s="43"/>
-    </row>
-    <row r="24" spans="1:17" ht="15.6" hidden="1">
+    </row>
+    <row r="24" spans="1:16" ht="15.6" hidden="1">
       <c r="A24" s="1">
         <v>33</v>
       </c>
@@ -6523,14 +6413,13 @@
         <v>0.66381156316916479</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O24" s="14">
         <v>0.45800000000000002</v>
       </c>
-      <c r="P24" s="43"/>
-    </row>
-    <row r="25" spans="1:17" ht="15.6" hidden="1">
+    </row>
+    <row r="25" spans="1:16" ht="15.6" hidden="1">
       <c r="A25" s="3">
         <v>31</v>
       </c>
@@ -6572,14 +6461,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O25" s="11">
         <v>0.68200000000000005</v>
       </c>
-      <c r="P25" s="43"/>
-    </row>
-    <row r="26" spans="1:17" ht="15.6">
+    </row>
+    <row r="26" spans="1:16" ht="15.6">
       <c r="A26" s="3">
         <v>33</v>
       </c>
@@ -6590,7 +6478,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E26" s="2">
         <v>1.8</v>
@@ -6623,16 +6511,13 @@
         <v>0.60628465804066534</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O26" s="14">
         <v>0.45800000000000002</v>
       </c>
-      <c r="P26" s="43">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="15.6">
+    </row>
+    <row r="27" spans="1:16" ht="15.6">
       <c r="A27" s="3">
         <v>34</v>
       </c>
@@ -6643,7 +6528,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E27" s="2">
         <v>1.4</v>
@@ -6676,16 +6561,13 @@
         <v>0.73376623376623373</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O27" s="14">
         <v>0.52600000000000002</v>
       </c>
-      <c r="P27" s="43">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="15.6" hidden="1">
+    </row>
+    <row r="28" spans="1:16" ht="15.6" hidden="1">
       <c r="A28" s="3">
         <v>34</v>
       </c>
@@ -6729,14 +6611,13 @@
         <v>0.78733031674208132</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O28" s="14">
         <v>0.52600000000000002</v>
       </c>
-      <c r="P28" s="43"/>
-    </row>
-    <row r="29" spans="1:17" ht="15.6" hidden="1">
+    </row>
+    <row r="29" spans="1:16" ht="15.6" hidden="1">
       <c r="A29" s="1">
         <v>33</v>
       </c>
@@ -6780,14 +6661,13 @@
         <v>0.74151218496146643</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O29" s="14">
         <v>0.45800000000000002</v>
       </c>
-      <c r="P29" s="43"/>
-    </row>
-    <row r="30" spans="1:17" ht="15.6" hidden="1">
+    </row>
+    <row r="30" spans="1:16" ht="15.6" hidden="1">
       <c r="A30" s="1">
         <v>34</v>
       </c>
@@ -6831,14 +6711,13 @@
         <v>0.81798245614035081</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O30" s="14">
         <v>0.52600000000000002</v>
       </c>
-      <c r="P30" s="43"/>
-    </row>
-    <row r="31" spans="1:17" ht="15.6">
+    </row>
+    <row r="31" spans="1:16" ht="15.6">
       <c r="A31" s="1">
         <v>34</v>
       </c>
@@ -6849,7 +6728,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E31" s="2">
         <v>1.6</v>
@@ -6882,16 +6761,13 @@
         <v>0.72851562499999989</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O31" s="14">
         <v>0.52600000000000002</v>
       </c>
-      <c r="P31" s="43">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="15.6" hidden="1">
+    </row>
+    <row r="32" spans="1:16" ht="15.6" hidden="1">
       <c r="A32" s="1">
         <v>34</v>
       </c>
@@ -6935,14 +6811,13 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O32" s="14">
         <v>0.52600000000000002</v>
       </c>
-      <c r="P32" s="43"/>
-    </row>
-    <row r="33" spans="1:23" ht="15.6">
+    </row>
+    <row r="33" spans="1:22" ht="15.6">
       <c r="A33" s="1">
         <v>34</v>
       </c>
@@ -6953,7 +6828,7 @@
         <v>4</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E33" s="2">
         <v>1.8</v>
@@ -6986,16 +6861,13 @@
         <v>0.7407407407407407</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O33" s="14">
         <v>0.52600000000000002</v>
       </c>
-      <c r="P33" s="43">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" ht="15.6">
+    </row>
+    <row r="34" spans="1:22" ht="15.6">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -7006,7 +6878,7 @@
         <v>4</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E34" s="4">
         <v>2</v>
@@ -7039,16 +6911,13 @@
         <v>0.73540145985401462</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O34" s="14">
         <v>0.45800000000000002</v>
       </c>
-      <c r="P34" s="43">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" ht="15.6">
+    </row>
+    <row r="35" spans="1:22" ht="15.6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -7059,7 +6928,7 @@
         <v>4</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E35" s="4">
         <v>2</v>
@@ -7090,25 +6959,22 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O35" s="14">
         <v>0.45800000000000002</v>
       </c>
-      <c r="P35" s="43">
-        <v>100</v>
-      </c>
-      <c r="Q35" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="R35" s="38"/>
-      <c r="S35" s="38"/>
-      <c r="T35" s="38"/>
-      <c r="U35" s="38"/>
-      <c r="V35" s="38"/>
-      <c r="W35" s="38"/>
-    </row>
-    <row r="36" spans="1:23" ht="15.6">
+      <c r="P35" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="42"/>
+      <c r="S35" s="42"/>
+      <c r="T35" s="42"/>
+      <c r="U35" s="42"/>
+      <c r="V35" s="42"/>
+    </row>
+    <row r="36" spans="1:22" ht="15.6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -7119,7 +6985,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E36" s="2">
         <v>2</v>
@@ -7152,16 +7018,13 @@
         <v>0.79220779220779225</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O36" s="14">
         <v>0.52600000000000002</v>
       </c>
-      <c r="P36" s="43">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" ht="15.6" hidden="1">
+    </row>
+    <row r="37" spans="1:22" ht="15.6" hidden="1">
       <c r="A37" s="3">
         <v>31</v>
       </c>
@@ -7203,14 +7066,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O37" s="11">
         <v>0.68200000000000005</v>
       </c>
-      <c r="P37" s="43"/>
-    </row>
-    <row r="38" spans="1:23" ht="15.6" hidden="1">
+    </row>
+    <row r="38" spans="1:22" ht="15.6" hidden="1">
       <c r="A38" s="3">
         <v>31</v>
       </c>
@@ -7252,14 +7114,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O38" s="11">
         <v>0.68200000000000005</v>
       </c>
-      <c r="P38" s="43"/>
-    </row>
-    <row r="39" spans="1:23" ht="15.6" hidden="1">
+    </row>
+    <row r="39" spans="1:22" ht="15.6" hidden="1">
       <c r="A39" s="3">
         <v>31</v>
       </c>
@@ -7301,14 +7162,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O39" s="11">
         <v>0.68200000000000005</v>
       </c>
-      <c r="P39" s="43"/>
-    </row>
-    <row r="40" spans="1:23" ht="15.6" hidden="1">
+    </row>
+    <row r="40" spans="1:22" ht="15.6" hidden="1">
       <c r="A40" s="3">
         <v>31</v>
       </c>
@@ -7350,14 +7210,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O40" s="11">
         <v>0.68200000000000005</v>
       </c>
-      <c r="P40" s="43"/>
-    </row>
-    <row r="41" spans="1:23" ht="15.6">
+    </row>
+    <row r="41" spans="1:22" ht="15.6">
       <c r="A41" s="1">
         <v>78</v>
       </c>
@@ -7368,7 +7227,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E41" s="4">
         <v>0.6</v>
@@ -7401,19 +7260,16 @@
         <v>0.95218427323272425</v>
       </c>
       <c r="N41" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O41" s="13">
         <v>6.33</v>
       </c>
-      <c r="P41" s="43">
-        <v>30</v>
-      </c>
-      <c r="R41" s="24">
+      <c r="Q41" s="24">
         <v>0.05</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="15.6">
+    <row r="42" spans="1:22" ht="15.6">
       <c r="A42" s="1">
         <v>78</v>
       </c>
@@ -7424,7 +7280,7 @@
         <v>4</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E42" s="4">
         <v>1</v>
@@ -7459,19 +7315,16 @@
         <v>1.0819395643007728</v>
       </c>
       <c r="N42" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O42" s="13">
         <v>6.33</v>
       </c>
-      <c r="P42" s="43">
-        <v>30</v>
-      </c>
-      <c r="R42" s="24">
+      <c r="Q42" s="24">
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="15.6">
+    <row r="43" spans="1:22" ht="15.6">
       <c r="A43" s="1">
         <v>78</v>
       </c>
@@ -7482,7 +7335,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E43" s="2">
         <v>1.4</v>
@@ -7515,19 +7368,16 @@
         <v>1.1356367789834381</v>
       </c>
       <c r="N43" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O43" s="14">
         <v>6.33</v>
       </c>
-      <c r="P43" s="43">
-        <v>30</v>
-      </c>
-      <c r="R43" s="24">
+      <c r="Q43" s="24">
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="15.6">
+    <row r="44" spans="1:22" ht="15.6">
       <c r="A44" s="1">
         <v>76</v>
       </c>
@@ -7538,7 +7388,7 @@
         <v>4</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E44" s="2">
         <v>0.6</v>
@@ -7571,19 +7421,16 @@
         <v>0.98294884653961878</v>
       </c>
       <c r="N44" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O44" s="14">
         <v>6.3520000000000003</v>
       </c>
-      <c r="P44" s="43">
-        <v>30</v>
-      </c>
-      <c r="R44" s="24">
+      <c r="Q44" s="24">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="15.6" hidden="1">
+    <row r="45" spans="1:22" ht="15.6" hidden="1">
       <c r="A45" s="1">
         <v>76</v>
       </c>
@@ -7594,7 +7441,7 @@
         <v>4</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E45" s="2">
         <v>1.4</v>
@@ -7627,14 +7474,13 @@
         <v>1.1426146010186757</v>
       </c>
       <c r="N45" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O45" s="14">
         <v>6.3520000000000003</v>
       </c>
-      <c r="P45" s="43"/>
-    </row>
-    <row r="46" spans="1:23" ht="15.6">
+    </row>
+    <row r="46" spans="1:22" ht="15.6">
       <c r="A46" s="1">
         <v>76</v>
       </c>
@@ -7645,7 +7491,7 @@
         <v>4</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E46" s="4">
         <v>0.6</v>
@@ -7678,16 +7524,13 @@
         <v>0.98019801980198018</v>
       </c>
       <c r="N46" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O46" s="14">
         <v>6.3520000000000003</v>
       </c>
-      <c r="P46" s="43">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" ht="15.6">
+    </row>
+    <row r="47" spans="1:22" ht="15.6">
       <c r="A47" s="1">
         <v>77</v>
       </c>
@@ -7698,7 +7541,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E47" s="2">
         <v>0.6</v>
@@ -7731,16 +7574,13 @@
         <v>0.96000000000000008</v>
       </c>
       <c r="N47" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O47" s="14">
         <v>6.24</v>
       </c>
-      <c r="P47" s="43">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" ht="15.6">
+    </row>
+    <row r="48" spans="1:22" ht="15.6">
       <c r="A48" s="1">
         <v>76</v>
       </c>
@@ -7751,7 +7591,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E48" s="2">
         <v>1</v>
@@ -7784,16 +7624,13 @@
         <v>1.1790235081374323</v>
       </c>
       <c r="N48" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O48" s="14">
         <v>6.3520000000000003</v>
       </c>
-      <c r="P48" s="43">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" ht="15.6">
+    </row>
+    <row r="49" spans="1:17" ht="15.6">
       <c r="A49" s="1">
         <v>76</v>
       </c>
@@ -7804,7 +7641,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E49" s="4">
         <v>1</v>
@@ -7837,20 +7674,17 @@
         <v>1.146371681415929</v>
       </c>
       <c r="N49" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O49" s="14">
         <v>6.3520000000000003</v>
       </c>
-      <c r="P49" s="43">
-        <v>30</v>
-      </c>
-      <c r="R49">
+      <c r="Q49">
         <f>(60.1265+59.3232)/2</f>
         <v>59.724850000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="15.6">
+    <row r="50" spans="1:17" ht="15.6">
       <c r="A50" s="1">
         <v>76</v>
       </c>
@@ -7861,7 +7695,7 @@
         <v>4</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E50" s="2">
         <v>1.4</v>
@@ -7894,16 +7728,13 @@
         <v>1.1524288107202678</v>
       </c>
       <c r="N50" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O50" s="14">
         <v>6.3520000000000003</v>
       </c>
-      <c r="P50" s="43">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" ht="15.6">
+    </row>
+    <row r="51" spans="1:17" ht="15.6">
       <c r="A51" s="1">
         <v>76</v>
       </c>
@@ -7914,7 +7745,7 @@
         <v>4</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E51" s="2">
         <v>1.4</v>
@@ -7947,16 +7778,13 @@
         <v>1.1285475792988313</v>
       </c>
       <c r="N51" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O51" s="14">
         <v>6.3520000000000003</v>
       </c>
-      <c r="P51" s="43">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" ht="15.6">
+    </row>
+    <row r="52" spans="1:17" ht="15.6">
       <c r="A52" s="3">
         <v>77</v>
       </c>
@@ -7967,7 +7795,7 @@
         <v>4</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E52" s="4">
         <v>1</v>
@@ -8000,16 +7828,13 @@
         <v>1.1572519083969466</v>
       </c>
       <c r="N52" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O52" s="14">
         <v>6.24</v>
       </c>
-      <c r="P52" s="43">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" ht="15.6">
+    </row>
+    <row r="53" spans="1:17" ht="15.6">
       <c r="A53" s="3">
         <v>77</v>
       </c>
@@ -8020,7 +7845,7 @@
         <v>4</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E53" s="2">
         <v>1.4</v>
@@ -8053,16 +7878,13 @@
         <v>1.2781954887218046</v>
       </c>
       <c r="N53" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O53" s="14">
         <v>6.24</v>
       </c>
-      <c r="P53" s="43">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" ht="15.6">
+    </row>
+    <row r="54" spans="1:17" ht="15.6">
       <c r="A54" s="1">
         <v>79</v>
       </c>
@@ -8073,7 +7895,7 @@
         <v>4</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E54" s="2">
         <v>0.6</v>
@@ -8106,16 +7928,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N54" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O54" s="14">
         <v>6.26</v>
       </c>
-      <c r="P54" s="43">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" ht="15.6">
+    </row>
+    <row r="55" spans="1:17" ht="15.6">
       <c r="A55" s="1">
         <v>79</v>
       </c>
@@ -8126,7 +7945,7 @@
         <v>4</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E55" s="4">
         <v>1</v>
@@ -8159,1073 +7978,2260 @@
         <v>1.0341670753637404</v>
       </c>
       <c r="N55" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O55" s="13">
         <v>6.26</v>
       </c>
-      <c r="P55" s="43">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" ht="15.6">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="12"/>
+    </row>
+    <row r="56" spans="1:17" ht="15.6">
+      <c r="A56" s="22">
+        <v>79</v>
+      </c>
+      <c r="B56" s="22">
+        <v>35</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="F56" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="G56" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H56" s="26">
+        <v>200</v>
+      </c>
       <c r="I56" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.84</v>
+      </c>
+      <c r="J56" s="23">
+        <f>(62.33+62.15)/2</f>
+        <v>62.239999999999995</v>
+      </c>
+      <c r="K56" s="23">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="L56" s="16">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>-2.4757129426512151E-2</v>
+      </c>
+      <c r="M56" s="4">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>1.0507712082262213</v>
+      </c>
+      <c r="N56" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O56" s="27">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="15.6">
+      <c r="A57" s="22">
+        <v>79</v>
+      </c>
+      <c r="B57" s="22">
+        <v>35</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E57" s="43">
+        <v>0.7</v>
+      </c>
+      <c r="F57" s="43">
+        <v>0.6</v>
+      </c>
+      <c r="G57" s="43">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H57" s="43">
+        <v>200</v>
+      </c>
+      <c r="I57" s="37">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.42</v>
+      </c>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23">
+        <f>(49.1+46.9)/2</f>
+        <v>48</v>
+      </c>
+      <c r="L57" s="39">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>-1</v>
+      </c>
+      <c r="M57" s="37" t="e">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N57" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O57" s="27">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="15.6">
+      <c r="A58" s="36">
+        <v>79</v>
+      </c>
+      <c r="B58" s="22">
+        <v>35</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="F58" s="43">
+        <v>0.6</v>
+      </c>
+      <c r="G58" s="43">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H58" s="43">
+        <v>200</v>
+      </c>
+      <c r="I58" s="37">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.48</v>
+      </c>
+      <c r="J58" s="38"/>
+      <c r="K58" s="38">
+        <v>58.06</v>
+      </c>
+      <c r="L58" s="39">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>-1</v>
+      </c>
+      <c r="M58" s="37" t="e">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N58" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O58" s="27">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="15.6">
+      <c r="A59" s="36">
+        <v>79</v>
+      </c>
+      <c r="B59" s="22">
+        <v>35</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E59" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="F59" s="43">
+        <v>0.6</v>
+      </c>
+      <c r="G59" s="43">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H59" s="43">
+        <v>200</v>
+      </c>
+      <c r="I59" s="37">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.54</v>
+      </c>
+      <c r="J59" s="38"/>
+      <c r="K59" s="38">
+        <v>64.77</v>
+      </c>
+      <c r="L59" s="39">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>-1</v>
+      </c>
+      <c r="M59" s="37" t="e">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N59" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O59" s="27">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="15.6">
+      <c r="A60" s="36">
+        <v>79</v>
+      </c>
+      <c r="B60" s="22">
+        <v>35</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E60" s="26">
+        <v>1</v>
+      </c>
+      <c r="F60" s="43">
+        <v>0.6</v>
+      </c>
+      <c r="G60" s="43">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H60" s="43">
+        <v>200</v>
+      </c>
+      <c r="I60" s="37">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.6</v>
+      </c>
+      <c r="J60" s="38"/>
+      <c r="K60" s="38">
+        <f>(64.76+60.3)/2</f>
+        <v>62.53</v>
+      </c>
+      <c r="L60" s="39">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>-1</v>
+      </c>
+      <c r="M60" s="37" t="e">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N60" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O60" s="27">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="15.6">
+      <c r="A61" s="36">
+        <v>79</v>
+      </c>
+      <c r="B61" s="22">
+        <v>35</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E61" s="26">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F61" s="43">
+        <v>0.6</v>
+      </c>
+      <c r="G61" s="43">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H61" s="43">
+        <v>200</v>
+      </c>
+      <c r="I61" s="37">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.66</v>
+      </c>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38">
+        <v>71.459999999999994</v>
+      </c>
+      <c r="L61" s="39">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>-1</v>
+      </c>
+      <c r="M61" s="37" t="e">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N61" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O61" s="27">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="15.6">
+      <c r="A62" s="36">
+        <v>79</v>
+      </c>
+      <c r="B62" s="22">
+        <v>35</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E62" s="26">
+        <v>1.2</v>
+      </c>
+      <c r="F62" s="43">
+        <v>0.6</v>
+      </c>
+      <c r="G62" s="43">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H62" s="43">
+        <v>200</v>
+      </c>
+      <c r="I62" s="37">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.72</v>
+      </c>
+      <c r="J62" s="38"/>
+      <c r="K62" s="38">
+        <f>(2*78.27+73.8)/3</f>
+        <v>76.779999999999987</v>
+      </c>
+      <c r="L62" s="39">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>-1</v>
+      </c>
+      <c r="M62" s="37" t="e">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N62" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O62" s="27">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="15.6">
+      <c r="A63" s="36">
+        <v>79</v>
+      </c>
+      <c r="B63" s="22">
+        <v>35</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E63" s="26">
+        <v>1.3</v>
+      </c>
+      <c r="F63" s="43">
+        <v>0.6</v>
+      </c>
+      <c r="G63" s="43">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H63" s="43">
+        <v>200</v>
+      </c>
+      <c r="I63" s="37">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.78</v>
+      </c>
+      <c r="J63" s="38"/>
+      <c r="K63" s="38">
+        <f>(78.27+82.75)/2</f>
+        <v>80.509999999999991</v>
+      </c>
+      <c r="L63" s="39">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>-1</v>
+      </c>
+      <c r="M63" s="37" t="e">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N63" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O63" s="27">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="15.6">
+      <c r="A64" s="36">
+        <v>79</v>
+      </c>
+      <c r="B64" s="22">
+        <v>35</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E64" s="26">
+        <v>1.4</v>
+      </c>
+      <c r="F64" s="43">
+        <v>0.6</v>
+      </c>
+      <c r="G64" s="43">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H64" s="43">
+        <v>200</v>
+      </c>
+      <c r="I64" s="37">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.84</v>
+      </c>
+      <c r="J64" s="38"/>
+      <c r="K64" s="38">
+        <f>(80.39+82.62)/2</f>
+        <v>81.504999999999995</v>
+      </c>
+      <c r="L64" s="39">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>-1</v>
+      </c>
+      <c r="M64" s="37" t="e">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N64" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O64" s="27">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="15.6">
+      <c r="A65" s="1">
+        <v>78</v>
+      </c>
+      <c r="B65" s="1">
+        <v>35</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F65" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="G65" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H65" s="12">
+        <v>2</v>
+      </c>
+      <c r="I65" s="16">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.36</v>
+      </c>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8">
+        <v>60.29</v>
+      </c>
+      <c r="L65" s="16">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>-1</v>
+      </c>
+      <c r="M65" s="4" t="e">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N65" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O65" s="14">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="15.6">
+      <c r="A66" s="1">
+        <v>78</v>
+      </c>
+      <c r="B66" s="1">
+        <v>35</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="F66" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="G66" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H66" s="12">
+        <v>2</v>
+      </c>
+      <c r="I66" s="16">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.42</v>
+      </c>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8">
+        <v>64.760000000000005</v>
+      </c>
+      <c r="L66" s="16">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>-1</v>
+      </c>
+      <c r="M66" s="4" t="e">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N66" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O66" s="14">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="15.6">
+      <c r="A67" s="1">
+        <v>78</v>
+      </c>
+      <c r="B67" s="1">
+        <v>35</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F67" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="G67" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H67" s="12">
+        <v>2</v>
+      </c>
+      <c r="I67" s="16">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.48</v>
+      </c>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8">
+        <f>(66.99+66.22)/2</f>
+        <v>66.60499999999999</v>
+      </c>
+      <c r="L67" s="16">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>-1</v>
+      </c>
+      <c r="M67" s="4" t="e">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N67" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O67" s="14">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="15.6">
+      <c r="A68" s="1">
+        <v>78</v>
+      </c>
+      <c r="B68" s="1">
+        <v>35</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E68" s="2">
+        <v>1</v>
+      </c>
+      <c r="F68" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="G68" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H68" s="12">
+        <v>2</v>
+      </c>
+      <c r="I68" s="16">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.6</v>
+      </c>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8">
+        <v>75.92</v>
+      </c>
+      <c r="L68" s="16">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>-1</v>
+      </c>
+      <c r="M68" s="4" t="e">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N68" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O68" s="14">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="15.6">
+      <c r="A69" s="1">
+        <v>78</v>
+      </c>
+      <c r="B69" s="1">
+        <v>35</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E69" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="F69" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H69" s="12">
+        <v>2</v>
+      </c>
+      <c r="I69" s="16">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.72</v>
+      </c>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8">
+        <f>(82.62+84.86)/2</f>
+        <v>83.740000000000009</v>
+      </c>
+      <c r="L69" s="16">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>-1</v>
+      </c>
+      <c r="M69" s="4" t="e">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N69" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O69" s="14">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="15.6">
+      <c r="A70" s="1">
+        <v>78</v>
+      </c>
+      <c r="B70" s="1">
+        <v>35</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E70" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="F70" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H70" s="12">
+        <v>2</v>
+      </c>
+      <c r="I70" s="16">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.84</v>
+      </c>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8">
+        <f>(89.32+96)/2</f>
+        <v>92.66</v>
+      </c>
+      <c r="L70" s="16">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>-1</v>
+      </c>
+      <c r="M70" s="4" t="e">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N70" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O70" s="14">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="15.6">
+      <c r="A71" s="1">
+        <v>77</v>
+      </c>
+      <c r="B71" s="1">
+        <v>35</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F71" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="G71" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H71" s="12">
+        <v>20</v>
+      </c>
+      <c r="I71" s="16">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.36</v>
+      </c>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8">
+        <f>(58.06+55.83)/2</f>
+        <v>56.945</v>
+      </c>
+      <c r="L71" s="16">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>-1</v>
+      </c>
+      <c r="M71" s="4" t="e">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N71" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O71" s="14">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="15.6">
+      <c r="A72" s="1">
+        <v>77</v>
+      </c>
+      <c r="B72" s="1">
+        <v>35</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="F72" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H72" s="12">
+        <v>20</v>
+      </c>
+      <c r="I72" s="16">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.42</v>
+      </c>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8">
+        <f>(62.52+60.29)/2</f>
+        <v>61.405000000000001</v>
+      </c>
+      <c r="L72" s="16">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>-1</v>
+      </c>
+      <c r="M72" s="4" t="e">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N72" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O72" s="14">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="15.6">
+      <c r="A73" s="1">
+        <v>77</v>
+      </c>
+      <c r="B73" s="1">
+        <v>35</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E73" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F73" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="G73" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H73" s="12">
+        <v>20</v>
+      </c>
+      <c r="I73" s="16">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.48</v>
+      </c>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8">
+        <f>(66.99+62.52)/2</f>
+        <v>64.754999999999995</v>
+      </c>
+      <c r="L73" s="16">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>-1</v>
+      </c>
+      <c r="M73" s="4" t="e">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N73" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O73" s="14">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="15.6">
+      <c r="A74" s="1">
+        <v>77</v>
+      </c>
+      <c r="B74" s="1">
+        <v>35</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E74" s="2">
+        <v>1</v>
+      </c>
+      <c r="F74" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="G74" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H74" s="12">
+        <v>20</v>
+      </c>
+      <c r="I74" s="16">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.6</v>
+      </c>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8">
+        <f>(75.92+71.46)/2</f>
+        <v>73.69</v>
+      </c>
+      <c r="L74" s="16">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>-1</v>
+      </c>
+      <c r="M74" s="4" t="e">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N74" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O74" s="14">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="15.6">
+      <c r="A75" s="1">
+        <v>77</v>
+      </c>
+      <c r="B75" s="1">
+        <v>35</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E75" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="F75" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="G75" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H75" s="12">
+        <v>20</v>
+      </c>
+      <c r="I75" s="16">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.72</v>
+      </c>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8">
+        <v>82.62</v>
+      </c>
+      <c r="L75" s="16">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>-1</v>
+      </c>
+      <c r="M75" s="4" t="e">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N75" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O75" s="14">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="15.6">
+      <c r="A76" s="1">
+        <v>77</v>
+      </c>
+      <c r="B76" s="1">
+        <v>35</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E76" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="F76" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="G76" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H76" s="12">
+        <v>20</v>
+      </c>
+      <c r="I76" s="16">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.84</v>
+      </c>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8">
+        <v>87.09</v>
+      </c>
+      <c r="L76" s="16">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>-1</v>
+      </c>
+      <c r="M76" s="4" t="e">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N76" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O76" s="14">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="15.6">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
+        <v>35</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E77" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F77" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="G77" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H77" s="12">
+        <v>20</v>
+      </c>
+      <c r="I77" s="16">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.24</v>
+      </c>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8">
+        <v>40.19</v>
+      </c>
+      <c r="L77" s="16">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>-1</v>
+      </c>
+      <c r="M77" s="4" t="e">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N77" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O77" s="14">
+        <v>6.3520000000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="15.6">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1">
+        <v>35</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E78" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F78" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="G78" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H78" s="12">
+        <v>20</v>
+      </c>
+      <c r="I78" s="16">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8">
+        <f>(46.89+51.36)/2</f>
+        <v>49.125</v>
+      </c>
+      <c r="L78" s="16">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>-1</v>
+      </c>
+      <c r="M78" s="4" t="e">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N78" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O78" s="14">
+        <v>6.3520000000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="15.6">
+      <c r="A79" s="1">
+        <v>76</v>
+      </c>
+      <c r="B79" s="1">
+        <v>35</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E79" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F79" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="G79" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H79" s="12">
+        <v>20</v>
+      </c>
+      <c r="I79" s="16">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.32000000000000006</v>
+      </c>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8">
+        <v>55.83</v>
+      </c>
+      <c r="L79" s="16">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>-1</v>
+      </c>
+      <c r="M79" s="4" t="e">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N79" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O79" s="14">
+        <v>6.3520000000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="15.6">
+      <c r="A80" s="1">
+        <v>76</v>
+      </c>
+      <c r="B80" s="1">
+        <v>35</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E80" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F80" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="G80" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H80" s="12">
+        <v>20</v>
+      </c>
+      <c r="I80" s="16">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8">
+        <f>(60.29+58.06)/2</f>
+        <v>59.174999999999997</v>
+      </c>
+      <c r="L80" s="16">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>-1</v>
+      </c>
+      <c r="M80" s="4" t="e">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N80" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O80" s="14">
+        <v>6.3520000000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="15.6">
+      <c r="A81" s="1">
+        <v>76</v>
+      </c>
+      <c r="B81" s="1">
+        <v>35</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E81" s="4">
+        <v>1</v>
+      </c>
+      <c r="F81" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="G81" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H81" s="12">
+        <v>20</v>
+      </c>
+      <c r="I81" s="16">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.4</v>
+      </c>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8">
+        <f>(60.29+62.52)/2</f>
+        <v>61.405000000000001</v>
+      </c>
+      <c r="L81" s="16">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>-1</v>
+      </c>
+      <c r="M81" s="4" t="e">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N81" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O81" s="14">
+        <v>6.3520000000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="15.6">
+      <c r="A82" s="1">
+        <v>76</v>
+      </c>
+      <c r="B82" s="1">
+        <v>35</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E82" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F82" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="G82" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H82" s="12">
+        <v>20</v>
+      </c>
+      <c r="I82" s="16">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.44000000000000006</v>
+      </c>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8">
+        <f>(64.76+66.99)/2</f>
+        <v>65.875</v>
+      </c>
+      <c r="L82" s="16">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>-1</v>
+      </c>
+      <c r="M82" s="4" t="e">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N82" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O82" s="14">
+        <v>6.3520000000000003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="15.6">
+      <c r="A83" s="1">
+        <v>76</v>
+      </c>
+      <c r="B83" s="1">
+        <v>35</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E83" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="F83" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="G83" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H83" s="12">
+        <v>20</v>
+      </c>
+      <c r="I83" s="16">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.48</v>
+      </c>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8">
+        <v>69.22</v>
+      </c>
+      <c r="L83" s="16">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>-1</v>
+      </c>
+      <c r="M83" s="4" t="e">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N83" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O83" s="14">
+        <v>6.3520000000000003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="15.6">
+      <c r="A84" s="1">
+        <v>76</v>
+      </c>
+      <c r="B84" s="1">
+        <v>35</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E84" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="F84" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="G84" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H84" s="12">
+        <v>20</v>
+      </c>
+      <c r="I84" s="16">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.52</v>
+      </c>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8">
+        <f>(71.46+73.69)/2</f>
+        <v>72.574999999999989</v>
+      </c>
+      <c r="L84" s="16">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>-1</v>
+      </c>
+      <c r="M84" s="4" t="e">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N84" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O84" s="14">
+        <v>6.3520000000000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="15.6">
+      <c r="A85" s="1">
+        <v>76</v>
+      </c>
+      <c r="B85" s="1">
+        <v>35</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E85" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="F85" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="G85" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H85" s="12">
+        <v>20</v>
+      </c>
+      <c r="I85" s="16">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8">
+        <f>(78.16+73.69)/2</f>
+        <v>75.924999999999997</v>
+      </c>
+      <c r="L85" s="16">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>-1</v>
+      </c>
+      <c r="M85" s="4" t="e">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N85" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O85" s="14">
+        <v>6.3520000000000003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="15.6">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="16">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>0</v>
       </c>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="16" t="e">
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="16" t="e">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M56" s="4" t="e">
+      <c r="M86" s="4" t="e">
         <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N56" s="25"/>
-      <c r="O56" s="13"/>
-      <c r="P56" s="43">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" ht="15.6">
-      <c r="A57" s="22">
-        <v>79</v>
-      </c>
-      <c r="B57" s="22">
-        <v>35</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E57" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="F57" s="12">
-        <v>0.6</v>
-      </c>
-      <c r="G57" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H57" s="26">
-        <v>200</v>
-      </c>
-      <c r="I57" s="16">
-        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0.84</v>
-      </c>
-      <c r="J57" s="23">
-        <f>(62.33+62.15)/2</f>
-        <v>62.239999999999995</v>
-      </c>
-      <c r="K57" s="23">
-        <v>65.400000000000006</v>
-      </c>
-      <c r="L57" s="16">
-        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
-        <v>-2.4757129426512151E-2</v>
-      </c>
-      <c r="M57" s="4">
-        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
-        <v>1.0507712082262213</v>
-      </c>
-      <c r="N57" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="O57" s="27">
-        <v>6.26</v>
-      </c>
-      <c r="P57" s="43">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" ht="15.6">
-      <c r="A58" s="39">
-        <v>79</v>
-      </c>
-      <c r="B58" s="39"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="40">
+      <c r="N86" s="44"/>
+      <c r="O86" s="13"/>
+    </row>
+    <row r="87" spans="1:15" ht="15.6">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>0</v>
       </c>
-      <c r="J58" s="41"/>
-      <c r="K58" s="41"/>
-      <c r="L58" s="42" t="e">
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="16" t="e">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M58" s="40" t="e">
+      <c r="M87" s="4" t="e">
         <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N58" s="26"/>
-      <c r="O58" s="27"/>
-      <c r="P58" s="43">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" ht="15.6">
-      <c r="A59" s="39">
-        <v>79</v>
-      </c>
-      <c r="B59" s="39"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="40">
+      <c r="N87" s="44"/>
+      <c r="O87" s="13"/>
+    </row>
+    <row r="88" spans="1:15" ht="15.6">
+      <c r="A88" s="36"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="37">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>0</v>
       </c>
-      <c r="J59" s="41"/>
-      <c r="K59" s="41"/>
-      <c r="L59" s="42" t="e">
+      <c r="J88" s="38"/>
+      <c r="K88" s="38"/>
+      <c r="L88" s="39" t="e">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M59" s="40" t="e">
+      <c r="M88" s="37" t="e">
         <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N59" s="26"/>
-      <c r="O59" s="27"/>
-      <c r="P59" s="43">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" ht="15.6">
-      <c r="A60" s="39"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="40">
+      <c r="N88" s="26"/>
+      <c r="O88" s="27"/>
+    </row>
+    <row r="89" spans="1:15" ht="15.6">
+      <c r="A89" s="36">
+        <v>79</v>
+      </c>
+      <c r="B89" s="36"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="37">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>0</v>
       </c>
-      <c r="J60" s="41"/>
-      <c r="K60" s="41"/>
-      <c r="L60" s="42" t="e">
+      <c r="J89" s="38"/>
+      <c r="K89" s="38"/>
+      <c r="L89" s="39" t="e">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M60" s="40" t="e">
+      <c r="M89" s="37" t="e">
         <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N60" s="26"/>
-      <c r="O60" s="27"/>
-      <c r="P60" s="43">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" ht="15.6">
-      <c r="A61" s="39"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="40">
-        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0</v>
-      </c>
-      <c r="J61" s="41"/>
-      <c r="K61" s="41"/>
-      <c r="L61" s="42" t="e">
-        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M61" s="40" t="e">
-        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N61" s="26"/>
-      <c r="O61" s="27"/>
-      <c r="P61" s="43">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" ht="15.6">
-      <c r="A62" s="39"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="40">
-        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0</v>
-      </c>
-      <c r="J62" s="41"/>
-      <c r="K62" s="41"/>
-      <c r="L62" s="42" t="e">
-        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M62" s="40" t="e">
-        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N62" s="26"/>
-      <c r="O62" s="27"/>
-      <c r="P62" s="43">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" ht="15.6">
-      <c r="A63" s="39"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="40">
-        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0</v>
-      </c>
-      <c r="J63" s="41"/>
-      <c r="K63" s="41"/>
-      <c r="L63" s="42" t="e">
-        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M63" s="40" t="e">
-        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N63" s="26"/>
-      <c r="O63" s="27"/>
-      <c r="P63" s="43">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" ht="15.6">
-      <c r="A64" s="39"/>
-      <c r="B64" s="39"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="40">
-        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0</v>
-      </c>
-      <c r="J64" s="41"/>
-      <c r="K64" s="41"/>
-      <c r="L64" s="42" t="e">
-        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M64" s="40" t="e">
-        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N64" s="26"/>
-      <c r="O64" s="27"/>
-      <c r="P64" s="43">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" ht="15.6">
-      <c r="A65" s="39"/>
-      <c r="B65" s="39"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="40">
-        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0</v>
-      </c>
-      <c r="J65" s="41"/>
-      <c r="K65" s="41"/>
-      <c r="L65" s="42" t="e">
-        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M65" s="40" t="e">
-        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N65" s="26"/>
-      <c r="O65" s="27"/>
-      <c r="P65" s="43">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" ht="15.6">
-      <c r="A66" s="39"/>
-      <c r="B66" s="39"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="40">
-        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0</v>
-      </c>
-      <c r="J66" s="41"/>
-      <c r="K66" s="41"/>
-      <c r="L66" s="42" t="e">
-        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M66" s="40" t="e">
-        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N66" s="26"/>
-      <c r="O66" s="27"/>
-      <c r="P66" s="43">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" ht="15.6">
-      <c r="A67" s="39">
-        <v>79</v>
-      </c>
-      <c r="B67" s="39"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="40">
-        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0</v>
-      </c>
-      <c r="J67" s="41"/>
-      <c r="K67" s="41"/>
-      <c r="L67" s="42" t="e">
-        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M67" s="40" t="e">
-        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N67" s="26"/>
-      <c r="O67" s="27"/>
-      <c r="P67" s="43"/>
-    </row>
-    <row r="69" spans="1:16" ht="15.6">
-      <c r="C69" s="36" t="s">
+      <c r="N89" s="26"/>
+      <c r="O89" s="27"/>
+    </row>
+    <row r="91" spans="1:15" ht="15.6">
+      <c r="C91" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D91" s="41"/>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" t="s">
+        <v>50</v>
+      </c>
+      <c r="B92" t="s">
+        <v>55</v>
+      </c>
+      <c r="C92" t="s">
+        <v>56</v>
+      </c>
+      <c r="D92" t="s">
+        <v>57</v>
+      </c>
+      <c r="E92" t="s">
         <v>52</v>
       </c>
-      <c r="D69" s="37"/>
-    </row>
-    <row r="70" spans="1:16">
-      <c r="A70" t="s">
-        <v>51</v>
-      </c>
-      <c r="B70" t="s">
-        <v>56</v>
-      </c>
-      <c r="C70" t="s">
-        <v>57</v>
-      </c>
-      <c r="D70" t="s">
-        <v>58</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="F92" t="s">
         <v>53</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G92" t="s">
         <v>54</v>
       </c>
-      <c r="G70" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16">
-      <c r="A71">
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93">
         <v>77</v>
       </c>
-      <c r="B71">
+      <c r="B93">
         <v>0.36</v>
       </c>
-      <c r="C71">
+      <c r="C93">
         <v>57.5</v>
       </c>
-      <c r="D71">
+      <c r="D93">
         <v>55.2</v>
       </c>
-      <c r="E71" s="32">
+      <c r="E93" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>2.0408163265306097E-2</v>
       </c>
-      <c r="F71" s="32">
+      <c r="F93" s="32">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>0.96000000000000008</v>
       </c>
-      <c r="G71">
+      <c r="G93">
         <v>6.24</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
-      <c r="A72">
+    <row r="94" spans="1:15">
+      <c r="A94">
         <v>77</v>
       </c>
-      <c r="B72">
+      <c r="B94">
         <v>0.6</v>
       </c>
-      <c r="C72">
+      <c r="C94">
         <v>65.5</v>
       </c>
-      <c r="D72">
+      <c r="D94">
         <v>75.8</v>
       </c>
-      <c r="E72" s="32">
+      <c r="E94" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-7.2894550601556946E-2</v>
       </c>
-      <c r="F72" s="32">
+      <c r="F94" s="32">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>1.1572519083969466</v>
       </c>
-      <c r="G72">
+      <c r="G94">
         <v>6.24</v>
       </c>
     </row>
-    <row r="73" spans="1:16" hidden="1">
-      <c r="A73">
+    <row r="95" spans="1:15" hidden="1">
+      <c r="A95">
         <v>76</v>
       </c>
-      <c r="B73">
+      <c r="B95">
         <v>0.24</v>
       </c>
-      <c r="C73">
+      <c r="C95">
         <f>AVERAGE(J43:J44)</f>
         <v>59.945000000000007</v>
       </c>
-      <c r="D73">
+      <c r="D95">
         <f>AVERAGE(K43:K44)</f>
         <v>64.27000000000001</v>
       </c>
-      <c r="E73" s="32">
+      <c r="E95" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-3.4818661192287582E-2</v>
       </c>
-      <c r="F73" s="32">
+      <c r="F95" s="32">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>1.0721494703478189</v>
       </c>
-      <c r="G73">
+      <c r="G95">
         <v>6.3520000000000003</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
-      <c r="A74">
+    <row r="96" spans="1:15">
+      <c r="A96">
         <v>77</v>
       </c>
-      <c r="B74">
+      <c r="B96">
         <v>0.84</v>
       </c>
-      <c r="C74">
+      <c r="C96">
         <v>66.5</v>
       </c>
-      <c r="D74">
+      <c r="D96">
         <v>85</v>
       </c>
-      <c r="E74" s="32">
+      <c r="E96" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-0.12211221122112212</v>
       </c>
-      <c r="F74" s="32">
+      <c r="F96" s="32">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>1.2781954887218046</v>
       </c>
-      <c r="G74">
+      <c r="G96">
         <v>6.24</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
-      <c r="A75">
+    <row r="97" spans="1:9">
+      <c r="A97">
         <v>78</v>
       </c>
-      <c r="B75">
+      <c r="B97">
         <v>0.36</v>
       </c>
-      <c r="C75">
+      <c r="C97">
         <v>62.95</v>
       </c>
-      <c r="D75">
+      <c r="D97">
         <v>59.94</v>
       </c>
-      <c r="E75" s="32">
+      <c r="E97" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>2.4493449426316261E-2</v>
       </c>
-      <c r="F75" s="32">
+      <c r="F97" s="32">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>0.95218427323272425</v>
       </c>
-      <c r="G75">
+      <c r="G97">
         <v>6.33</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
-      <c r="A76">
+    <row r="98" spans="1:9">
+      <c r="A98">
         <v>78</v>
       </c>
-      <c r="B76">
+      <c r="B98">
         <v>0.6</v>
       </c>
-      <c r="C76">
+      <c r="C98">
         <v>71.150000000000006</v>
       </c>
-      <c r="D76">
+      <c r="D98">
         <v>76.97999999999999</v>
       </c>
-      <c r="E76" s="32">
+      <c r="E98" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-3.9357321271855698E-2</v>
       </c>
-      <c r="F76" s="32">
+      <c r="F98" s="32">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>1.0819395643007728</v>
       </c>
-      <c r="G76">
+      <c r="G98">
         <v>6.33</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
-      <c r="A77">
+    <row r="99" spans="1:9">
+      <c r="A99">
         <v>78</v>
       </c>
-      <c r="B77">
+      <c r="B99">
         <v>0.84</v>
       </c>
-      <c r="C77">
+      <c r="C99">
         <v>70.040000000000006</v>
       </c>
-      <c r="D77">
+      <c r="D99">
         <v>79.540000000000006</v>
       </c>
-      <c r="E77" s="32">
+      <c r="E99" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-6.3511164594197075E-2</v>
       </c>
-      <c r="F77" s="32">
+      <c r="F99" s="32">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>1.1356367789834381</v>
       </c>
-      <c r="G77">
+      <c r="G99">
         <v>6.33</v>
       </c>
     </row>
-    <row r="78" spans="1:16" hidden="1">
-      <c r="A78">
+    <row r="100" spans="1:9" hidden="1">
+      <c r="A100">
         <v>76</v>
       </c>
-      <c r="B78">
+      <c r="B100">
         <v>0.4</v>
       </c>
-      <c r="C78">
+      <c r="C100">
         <f>AVERAGE(J49:J50)</f>
         <v>58.1</v>
       </c>
-      <c r="D78">
+      <c r="D100">
         <f>AVERAGE(K49:K50)</f>
         <v>66.784999999999997</v>
       </c>
-      <c r="E78" s="32">
+      <c r="E100" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-6.9543980462025035E-2</v>
       </c>
-      <c r="F78" s="32">
+      <c r="F100" s="32">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>1.1494836488812392</v>
       </c>
-      <c r="G78">
+      <c r="G100">
         <v>6.3520000000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
-      <c r="A79">
+    <row r="101" spans="1:9">
+      <c r="A101">
         <v>79</v>
       </c>
-      <c r="B79">
+      <c r="B101">
         <v>0.6</v>
       </c>
-      <c r="C79">
+      <c r="C101">
         <v>61.17</v>
       </c>
-      <c r="D79">
+      <c r="D101">
         <v>63.26</v>
       </c>
-      <c r="E79" s="32">
+      <c r="E101" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-1.679659246162498E-2</v>
       </c>
-      <c r="F79" s="32">
+      <c r="F101" s="32">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>1.0341670753637404</v>
       </c>
-      <c r="G79">
+      <c r="G101">
         <v>6.26</v>
       </c>
     </row>
-    <row r="80" spans="1:16" hidden="1">
-      <c r="A80">
+    <row r="102" spans="1:9" hidden="1">
+      <c r="A102">
         <v>76</v>
       </c>
-      <c r="B80">
+      <c r="B102">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C80">
+      <c r="C102">
         <f>AVERAGE(J53:J54)</f>
         <v>33.25</v>
       </c>
-      <c r="D80">
+      <c r="D102">
         <f>AVERAGE(K53:K54)</f>
         <v>62.2</v>
       </c>
-      <c r="E80" s="32">
+      <c r="E102" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-0.30330015715034053</v>
       </c>
-      <c r="F80" s="32">
+      <c r="F102" s="32">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>1.8706766917293234</v>
       </c>
-      <c r="G80">
+      <c r="G102">
         <v>6.3520000000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
-      <c r="A81">
+    <row r="103" spans="1:9">
+      <c r="A103">
         <v>79</v>
       </c>
-      <c r="B81">
+      <c r="B103">
         <v>0.84</v>
       </c>
-      <c r="C81">
+      <c r="C103">
         <v>62.239999999999995</v>
       </c>
-      <c r="D81">
+      <c r="D103">
         <v>65.400000000000006</v>
       </c>
-      <c r="E81" s="32">
+      <c r="E103" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-2.4757129426512151E-2</v>
       </c>
-      <c r="F81" s="32">
+      <c r="F103" s="32">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>1.0507712082262213</v>
       </c>
-      <c r="G81">
+      <c r="G103">
         <v>6.26</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
-      <c r="A82">
+    <row r="104" spans="1:9">
+      <c r="A104">
         <v>79</v>
       </c>
-      <c r="B82">
+      <c r="B104">
         <v>0.36</v>
       </c>
-      <c r="C82">
+      <c r="C104">
         <v>0</v>
       </c>
-      <c r="D82">
+      <c r="D104">
         <v>39.4</v>
       </c>
-      <c r="E82" s="32">
+      <c r="E104" s="32">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-1</v>
       </c>
-      <c r="F82" s="32" t="e">
+      <c r="F104" s="32" t="e">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G82">
+      <c r="G104">
         <v>6.26</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
-      <c r="D85" s="21"/>
-      <c r="E85" s="21" t="s">
+    <row r="107" spans="1:9">
+      <c r="D107" s="21"/>
+      <c r="E107" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F107" s="21"/>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="D108" s="21">
+        <v>77</v>
+      </c>
+      <c r="E108" s="21">
+        <v>0.66290000000000004</v>
+      </c>
+      <c r="F108" s="21"/>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="D109" s="21">
+        <v>78</v>
+      </c>
+      <c r="E109" s="21">
+        <v>0.38219999999999998</v>
+      </c>
+      <c r="F109" s="21"/>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="D110" s="21">
+        <v>79</v>
+      </c>
+      <c r="E110" s="21">
+        <v>6.9199999999999998E-2</v>
+      </c>
+      <c r="F110" s="21"/>
+      <c r="I110" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="C111" t="s">
         <v>59</v>
       </c>
-      <c r="F85" s="21"/>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="D86" s="21">
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
+        <v>50</v>
+      </c>
+      <c r="B112" t="s">
+        <v>55</v>
+      </c>
+      <c r="C112" t="s">
+        <v>56</v>
+      </c>
+      <c r="D112" t="s">
+        <v>57</v>
+      </c>
+      <c r="E112" t="s">
+        <v>52</v>
+      </c>
+      <c r="F112" t="s">
+        <v>53</v>
+      </c>
+      <c r="G112" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
         <v>77</v>
       </c>
-      <c r="E86" s="21">
-        <v>0.66290000000000004</v>
-      </c>
-      <c r="F86" s="21"/>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="D87" s="21">
+      <c r="B113">
+        <v>0.36</v>
+      </c>
+      <c r="C113">
+        <v>57.5</v>
+      </c>
+      <c r="D113">
+        <v>55.2</v>
+      </c>
+      <c r="E113">
+        <v>2.0408163265306097E-2</v>
+      </c>
+      <c r="F113">
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="G113">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
+        <v>77</v>
+      </c>
+      <c r="B114">
+        <v>0.6</v>
+      </c>
+      <c r="C114">
+        <v>65.5</v>
+      </c>
+      <c r="D114">
+        <v>75.8</v>
+      </c>
+      <c r="E114">
+        <v>-7.2894550601556946E-2</v>
+      </c>
+      <c r="F114">
+        <v>1.1572519083969466</v>
+      </c>
+      <c r="G114">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115">
+        <v>76</v>
+      </c>
+      <c r="B115">
+        <v>0.24</v>
+      </c>
+      <c r="C115">
+        <v>55.9</v>
+      </c>
+      <c r="D115">
+        <v>64.984999999999999</v>
+      </c>
+      <c r="E115">
+        <v>-7.515407205195021E-2</v>
+      </c>
+      <c r="F115">
+        <v>1.1625223613595708</v>
+      </c>
+      <c r="G115">
+        <v>6.3520000000000003</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <v>77</v>
+      </c>
+      <c r="B116">
+        <v>0.84</v>
+      </c>
+      <c r="C116">
+        <v>66.5</v>
+      </c>
+      <c r="D116">
+        <v>85</v>
+      </c>
+      <c r="E116">
+        <v>-0.12211221122112212</v>
+      </c>
+      <c r="F116">
+        <v>1.2781954887218046</v>
+      </c>
+      <c r="G116">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
         <v>78</v>
       </c>
-      <c r="E87" s="21">
-        <v>0.38219999999999998</v>
-      </c>
-      <c r="F87" s="21"/>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="D88" s="21">
+      <c r="B117">
+        <v>0.36</v>
+      </c>
+      <c r="C117">
+        <v>62.95</v>
+      </c>
+      <c r="D117">
+        <v>59.94</v>
+      </c>
+      <c r="E117">
+        <v>2.4493449426316261E-2</v>
+      </c>
+      <c r="F117">
+        <v>0.95218427323272425</v>
+      </c>
+      <c r="G117">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <v>78</v>
+      </c>
+      <c r="B118">
+        <v>0.6</v>
+      </c>
+      <c r="C118">
+        <v>71.150000000000006</v>
+      </c>
+      <c r="D118">
+        <v>76.97999999999999</v>
+      </c>
+      <c r="E118">
+        <v>-3.9357321271855698E-2</v>
+      </c>
+      <c r="F118">
+        <v>1.0819395643007728</v>
+      </c>
+      <c r="G118">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119">
+        <v>78</v>
+      </c>
+      <c r="B119">
+        <v>0.84</v>
+      </c>
+      <c r="C119">
+        <v>70.040000000000006</v>
+      </c>
+      <c r="D119">
+        <v>79.540000000000006</v>
+      </c>
+      <c r="E119">
+        <v>-6.3511164594197075E-2</v>
+      </c>
+      <c r="F119">
+        <v>1.1356367789834381</v>
+      </c>
+      <c r="G119">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <v>76</v>
+      </c>
+      <c r="B120">
+        <v>0.4</v>
+      </c>
+      <c r="C120">
+        <v>66</v>
+      </c>
+      <c r="D120">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="E120">
+        <v>-9.8360655737704958E-2</v>
+      </c>
+      <c r="F120">
+        <v>1.2181818181818183</v>
+      </c>
+      <c r="G120">
+        <v>6.3520000000000003</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121">
         <v>79</v>
       </c>
-      <c r="E88" s="21">
-        <v>6.9199999999999998E-2</v>
-      </c>
-      <c r="F88" s="21"/>
-      <c r="I88" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="C89" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" t="s">
-        <v>51</v>
-      </c>
-      <c r="B90" t="s">
-        <v>56</v>
-      </c>
-      <c r="C90" t="s">
-        <v>57</v>
-      </c>
-      <c r="D90" t="s">
-        <v>58</v>
-      </c>
-      <c r="E90" t="s">
-        <v>53</v>
-      </c>
-      <c r="F90" t="s">
-        <v>54</v>
-      </c>
-      <c r="G90" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91">
-        <v>77</v>
-      </c>
-      <c r="B91">
+      <c r="B121">
+        <v>0.6</v>
+      </c>
+      <c r="C121">
+        <v>61.17</v>
+      </c>
+      <c r="D121">
+        <v>63.26</v>
+      </c>
+      <c r="E121">
+        <v>-1.679659246162498E-2</v>
+      </c>
+      <c r="F121">
+        <v>1.0341670753637404</v>
+      </c>
+      <c r="G121">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122">
+        <v>76</v>
+      </c>
+      <c r="B122">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C122">
+        <v>35.020000000000003</v>
+      </c>
+      <c r="D122">
+        <v>59.47</v>
+      </c>
+      <c r="E122">
+        <v>-0.25875754048047406</v>
+      </c>
+      <c r="F122">
+        <v>1.6981724728726439</v>
+      </c>
+      <c r="G122">
+        <v>6.3520000000000003</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123">
+        <v>79</v>
+      </c>
+      <c r="B123">
+        <v>0.84</v>
+      </c>
+      <c r="C123">
+        <v>62.239999999999995</v>
+      </c>
+      <c r="D123">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="E123">
+        <v>-2.4757129426512151E-2</v>
+      </c>
+      <c r="F123">
+        <v>1.0507712082262213</v>
+      </c>
+      <c r="G123">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124">
+        <v>79</v>
+      </c>
+      <c r="B124">
         <v>0.36</v>
       </c>
-      <c r="C91">
-        <v>57.5</v>
-      </c>
-      <c r="D91">
-        <v>55.2</v>
-      </c>
-      <c r="E91">
-        <v>2.0408163265306097E-2</v>
-      </c>
-      <c r="F91">
-        <v>0.96000000000000008</v>
-      </c>
-      <c r="G91">
-        <v>6.24</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92">
-        <v>77</v>
-      </c>
-      <c r="B92">
-        <v>0.6</v>
-      </c>
-      <c r="C92">
-        <v>65.5</v>
-      </c>
-      <c r="D92">
-        <v>75.8</v>
-      </c>
-      <c r="E92">
-        <v>-7.2894550601556946E-2</v>
-      </c>
-      <c r="F92">
-        <v>1.1572519083969466</v>
-      </c>
-      <c r="G92">
-        <v>6.24</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93">
-        <v>76</v>
-      </c>
-      <c r="B93">
-        <v>0.24</v>
-      </c>
-      <c r="C93">
-        <v>55.9</v>
-      </c>
-      <c r="D93">
-        <v>64.984999999999999</v>
-      </c>
-      <c r="E93">
-        <v>-7.515407205195021E-2</v>
-      </c>
-      <c r="F93">
-        <v>1.1625223613595708</v>
-      </c>
-      <c r="G93">
-        <v>6.3520000000000003</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94">
-        <v>77</v>
-      </c>
-      <c r="B94">
-        <v>0.84</v>
-      </c>
-      <c r="C94">
-        <v>66.5</v>
-      </c>
-      <c r="D94">
-        <v>85</v>
-      </c>
-      <c r="E94">
-        <v>-0.12211221122112212</v>
-      </c>
-      <c r="F94">
-        <v>1.2781954887218046</v>
-      </c>
-      <c r="G94">
-        <v>6.24</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95">
-        <v>78</v>
-      </c>
-      <c r="B95">
-        <v>0.36</v>
-      </c>
-      <c r="C95">
-        <v>62.95</v>
-      </c>
-      <c r="D95">
-        <v>59.94</v>
-      </c>
-      <c r="E95">
-        <v>2.4493449426316261E-2</v>
-      </c>
-      <c r="F95">
-        <v>0.95218427323272425</v>
-      </c>
-      <c r="G95">
-        <v>6.33</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96">
-        <v>78</v>
-      </c>
-      <c r="B96">
-        <v>0.6</v>
-      </c>
-      <c r="C96">
-        <v>71.150000000000006</v>
-      </c>
-      <c r="D96">
-        <v>76.97999999999999</v>
-      </c>
-      <c r="E96">
-        <v>-3.9357321271855698E-2</v>
-      </c>
-      <c r="F96">
-        <v>1.0819395643007728</v>
-      </c>
-      <c r="G96">
-        <v>6.33</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97">
-        <v>78</v>
-      </c>
-      <c r="B97">
-        <v>0.84</v>
-      </c>
-      <c r="C97">
-        <v>70.040000000000006</v>
-      </c>
-      <c r="D97">
-        <v>79.540000000000006</v>
-      </c>
-      <c r="E97">
-        <v>-6.3511164594197075E-2</v>
-      </c>
-      <c r="F97">
-        <v>1.1356367789834381</v>
-      </c>
-      <c r="G97">
-        <v>6.33</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98">
-        <v>76</v>
-      </c>
-      <c r="B98">
-        <v>0.4</v>
-      </c>
-      <c r="C98">
-        <v>66</v>
-      </c>
-      <c r="D98">
-        <v>80.400000000000006</v>
-      </c>
-      <c r="E98">
-        <v>-9.8360655737704958E-2</v>
-      </c>
-      <c r="F98">
-        <v>1.2181818181818183</v>
-      </c>
-      <c r="G98">
-        <v>6.3520000000000003</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99">
-        <v>79</v>
-      </c>
-      <c r="B99">
-        <v>0.6</v>
-      </c>
-      <c r="C99">
-        <v>61.17</v>
-      </c>
-      <c r="D99">
-        <v>63.26</v>
-      </c>
-      <c r="E99">
-        <v>-1.679659246162498E-2</v>
-      </c>
-      <c r="F99">
-        <v>1.0341670753637404</v>
-      </c>
-      <c r="G99">
-        <v>6.26</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100">
-        <v>76</v>
-      </c>
-      <c r="B100">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="C100">
-        <v>35.020000000000003</v>
-      </c>
-      <c r="D100">
-        <v>59.47</v>
-      </c>
-      <c r="E100">
-        <v>-0.25875754048047406</v>
-      </c>
-      <c r="F100">
-        <v>1.6981724728726439</v>
-      </c>
-      <c r="G100">
-        <v>6.3520000000000003</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101">
-        <v>79</v>
-      </c>
-      <c r="B101">
-        <v>0.84</v>
-      </c>
-      <c r="C101">
-        <v>62.239999999999995</v>
-      </c>
-      <c r="D101">
-        <v>65.400000000000006</v>
-      </c>
-      <c r="E101">
-        <v>-2.4757129426512151E-2</v>
-      </c>
-      <c r="F101">
-        <v>1.0507712082262213</v>
-      </c>
-      <c r="G101">
-        <v>6.26</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102">
-        <v>79</v>
-      </c>
-      <c r="B102">
-        <v>0.36</v>
-      </c>
-      <c r="C102">
+      <c r="C124">
         <v>0</v>
       </c>
-      <c r="D102">
+      <c r="D124">
         <v>39.4</v>
       </c>
-      <c r="E102">
+      <c r="E124">
         <v>-1</v>
       </c>
-      <c r="F102" t="e">
+      <c r="F124" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="G102">
+      <c r="G124">
         <v>6.26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="Q35:W35"/>
-    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="P35:V35"/>
+    <mergeCell ref="C91:D91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9239,95 +10245,154 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:K7"/>
+      <selection activeCell="A6" sqref="A6:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6">
       <c r="A1" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A19:O21"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="A6:K6"/>
